--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_17_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_17_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>543197.097349178</v>
+        <v>538575.0236764735</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30086488.12669461</v>
+        <v>30086488.12669462</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7192589.72973566</v>
+        <v>7192589.729735666</v>
       </c>
     </row>
     <row r="9">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1426,19 +1426,19 @@
         <v>211.1448086517629</v>
       </c>
       <c r="U11" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>247.9262677933493</v>
       </c>
       <c r="W11" t="n">
-        <v>58.22130944557739</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>11.68284247578064</v>
       </c>
       <c r="S13" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.5909258267186</v>
+        <v>181.8896598990746</v>
       </c>
       <c r="U13" t="n">
-        <v>152.0902956111317</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -1593,7 +1593,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1609,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>398.5660300744983</v>
+        <v>156.5480796001837</v>
       </c>
       <c r="H14" t="n">
-        <v>146.6065128485021</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
@@ -1782,7 +1782,7 @@
         <v>163.8185422817731</v>
       </c>
       <c r="H16" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T16" t="n">
-        <v>237.5909258267186</v>
+        <v>237.3558566318684</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3402845023203</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>54.84177502936181</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>35.63157066075939</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T17" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>309.0465071309401</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2004,7 +2004,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>11.68284247578064</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.5909258267186</v>
+        <v>108.6835547225988</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2067,7 +2067,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>92.94978562876155</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2086,16 +2086,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>220.9310098516219</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H20" t="n">
         <v>277.176001558223</v>
@@ -2134,16 +2134,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>82.0398389298219</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>63.32136466518995</v>
+        <v>63.32136466518996</v>
       </c>
       <c r="T21" t="n">
         <v>136.7309641056443</v>
@@ -2244,13 +2244,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>13.27130680722197</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>11.68284247578065</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>138.3041391381508</v>
       </c>
       <c r="T22" t="n">
         <v>237.5909258267186</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>262.5792726037348</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>138.7494573240739</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2377,16 +2377,16 @@
         <v>255.5987207868959</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>78.55260020055611</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.6263981770148</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>133.7518895214902</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>3.043344820014475</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>151.5640650846019</v>
@@ -2538,7 +2538,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>250.2925598374202</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>190.7920162886434</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
         <v>420.8729399924937</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>33.20023171453127</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.5987207868959</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>407.6027988439302</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>59.06428513665469</v>
+        <v>59.0642851366547</v>
       </c>
       <c r="T27" t="n">
         <v>135.8071728218842</v>
@@ -2715,22 +2715,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>115.2343743447744</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>73.13639368188171</v>
       </c>
       <c r="H28" t="n">
-        <v>133.7518895214902</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2794,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
         <v>421.717170453621</v>
@@ -2806,7 +2806,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>398.1376777532465</v>
+        <v>15.85862384341402</v>
       </c>
       <c r="H29" t="n">
         <v>272.7891383482028</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>54.14833215406097</v>
+        <v>54.14833215406099</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.5987207868959</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>361.0965634457339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>59.06428513665469</v>
+        <v>59.0642851366547</v>
       </c>
       <c r="T30" t="n">
         <v>135.8071728218842</v>
@@ -2958,19 +2958,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>81.59594502057078</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.6263981770148</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>133.7518895214902</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>69.66042749305176</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>3.043344820014482</v>
       </c>
       <c r="S31" t="n">
         <v>151.5640650846019</v>
@@ -3006,7 +3006,7 @@
         <v>236.7699464700243</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3298039147881</v>
+        <v>42.77987306775677</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3018,7 +3018,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3034,19 +3034,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
         <v>398.1376777532465</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>146.1088052252661</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>54.14833215406099</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>240.1595369320843</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>59.06428513665469</v>
+        <v>59.0642851366547</v>
       </c>
       <c r="T33" t="n">
         <v>135.8071728218842</v>
@@ -3189,7 +3189,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -3198,7 +3198,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>134.2621042711519</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>3.043344820014475</v>
+        <v>3.043344820014482</v>
       </c>
       <c r="S34" t="n">
-        <v>151.5640650846019</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>236.7699464700243</v>
@@ -3249,10 +3249,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>120.9852544758649</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>112.2767981932534</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
         <v>421.717170453621</v>
@@ -3280,10 +3280,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>398.1376777532465</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>272.7891383482028</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.5987207868959</v>
+        <v>182.7449344839582</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>59.06428513665469</v>
+        <v>59.0642851366547</v>
       </c>
       <c r="T36" t="n">
         <v>135.8071728218842</v>
@@ -3426,25 +3426,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>112.1910295247611</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0.4326213688144457</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>133.7518895214902</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>69.66042749305176</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>3.043344820014475</v>
+        <v>3.043344820014482</v>
       </c>
       <c r="S37" t="n">
         <v>151.5640650846019</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>372.0936489010369</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>398.1376777532465</v>
+        <v>128.5966023298979</v>
       </c>
       <c r="H38" t="n">
-        <v>272.7891383482028</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>54.14833215406099</v>
       </c>
       <c r="T38" t="n">
-        <v>209.2696963654831</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.5987207868959</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>59.06428513665469</v>
+        <v>59.0642851366547</v>
       </c>
       <c r="T39" t="n">
         <v>135.8071728218842</v>
@@ -3678,10 +3678,10 @@
         <v>163.6263981770148</v>
       </c>
       <c r="H40" t="n">
-        <v>133.7518895214902</v>
+        <v>99.26953205838446</v>
       </c>
       <c r="I40" t="n">
-        <v>69.66042749305176</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>3.043344820014475</v>
+        <v>3.043344820014482</v>
       </c>
       <c r="S40" t="n">
         <v>151.5640650846019</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>236.7699464700243</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3298039147881</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>131.0626127106044</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3745,19 +3745,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.1376777532465</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>272.7891383482028</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>178.3206652275215</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.5987207868959</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>205.9673789299175</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>59.06428513665469</v>
+        <v>59.0642851366547</v>
       </c>
       <c r="T42" t="n">
         <v>135.8071728218842</v>
@@ -3909,13 +3909,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>93.25179716442659</v>
       </c>
       <c r="G43" t="n">
         <v>163.6263981770148</v>
       </c>
       <c r="H43" t="n">
-        <v>133.7518895214902</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>3.043344820014475</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>151.5640650846019</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>236.7699464700243</v>
@@ -3963,10 +3963,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>98.96693947094367</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3979,7 +3979,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>141.8667434784615</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>54.14833215406097</v>
+        <v>54.14833215406099</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>178.3899314619099</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>59.06428513665469</v>
+        <v>59.0642851366547</v>
       </c>
       <c r="T45" t="n">
         <v>135.8071728218842</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.33198265979681</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>97.7757113344895</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4155,7 +4155,7 @@
         <v>133.7518895214902</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>69.66042749305176</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>3.043344820014475</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>151.5640650846019</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>36.27616607839228</v>
+        <v>889.1538359172346</v>
       </c>
       <c r="C11" t="n">
-        <v>36.27616607839228</v>
+        <v>462.2531059305347</v>
       </c>
       <c r="D11" t="n">
-        <v>36.27616607839228</v>
+        <v>462.2531059305347</v>
       </c>
       <c r="E11" t="n">
         <v>36.27616607839228</v>
@@ -5038,16 +5038,16 @@
         <v>36.27616607839228</v>
       </c>
       <c r="I11" t="n">
-        <v>68.08893453872668</v>
+        <v>68.08893453872679</v>
       </c>
       <c r="J11" t="n">
-        <v>184.296341114908</v>
+        <v>184.2963411149083</v>
       </c>
       <c r="K11" t="n">
-        <v>366.7061291250299</v>
+        <v>366.7061291250301</v>
       </c>
       <c r="L11" t="n">
-        <v>598.9981372303101</v>
+        <v>598.9981372303102</v>
       </c>
       <c r="M11" t="n">
         <v>862.6140377103479</v>
@@ -5074,19 +5074,19 @@
         <v>1535.975759145523</v>
       </c>
       <c r="U11" t="n">
-        <v>1277.760618769164</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="V11" t="n">
-        <v>920.2712038954132</v>
+        <v>1285.545185616888</v>
       </c>
       <c r="W11" t="n">
-        <v>861.461800415032</v>
+        <v>889.1538359172346</v>
       </c>
       <c r="X11" t="n">
-        <v>861.461800415032</v>
+        <v>889.1538359172346</v>
       </c>
       <c r="Y11" t="n">
-        <v>456.1245303699224</v>
+        <v>889.1538359172346</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>36.27616607839228</v>
       </c>
       <c r="I12" t="n">
-        <v>51.80960935527475</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J12" t="n">
-        <v>117.9640444811038</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K12" t="n">
-        <v>243.7326700523438</v>
+        <v>628.9641045014106</v>
       </c>
       <c r="L12" t="n">
-        <v>692.6502252724483</v>
+        <v>805.6029553320595</v>
       </c>
       <c r="M12" t="n">
-        <v>901.9249237534634</v>
+        <v>1014.877653813075</v>
       </c>
       <c r="N12" t="n">
-        <v>1119.07990558578</v>
+        <v>1232.032635645391</v>
       </c>
       <c r="O12" t="n">
-        <v>1532.531802917783</v>
+        <v>1427.076302632877</v>
       </c>
       <c r="P12" t="n">
-        <v>1685.929917764136</v>
+        <v>1580.47441747923</v>
       </c>
       <c r="Q12" t="n">
-        <v>1780.360625738641</v>
+        <v>1674.905125453736</v>
       </c>
       <c r="R12" t="n">
         <v>1813.808303919613</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>36.27616607839228</v>
+        <v>365.0662139837156</v>
       </c>
       <c r="C13" t="n">
-        <v>36.27616607839228</v>
+        <v>365.0662139837156</v>
       </c>
       <c r="D13" t="n">
-        <v>36.27616607839228</v>
+        <v>201.7494411104863</v>
       </c>
       <c r="E13" t="n">
-        <v>36.27616607839228</v>
+        <v>201.7494411104863</v>
       </c>
       <c r="F13" t="n">
-        <v>36.27616607839228</v>
+        <v>201.7494411104863</v>
       </c>
       <c r="G13" t="n">
         <v>36.27616607839228</v>
@@ -5199,22 +5199,22 @@
         <v>36.27616607839228</v>
       </c>
       <c r="J13" t="n">
-        <v>70.15038753583897</v>
+        <v>148.0721041840598</v>
       </c>
       <c r="K13" t="n">
-        <v>138.6345353799611</v>
+        <v>463.838861142204</v>
       </c>
       <c r="L13" t="n">
-        <v>587.5520906000656</v>
+        <v>912.7564163623085</v>
       </c>
       <c r="M13" t="n">
-        <v>1036.46964582017</v>
+        <v>1010.809763939928</v>
       </c>
       <c r="N13" t="n">
-        <v>1485.387201040275</v>
+        <v>1107.808470031876</v>
       </c>
       <c r="O13" t="n">
-        <v>1703.122733210255</v>
+        <v>1556.72602525198</v>
       </c>
       <c r="P13" t="n">
         <v>1773.863841351391</v>
@@ -5226,25 +5226,25 @@
         <v>1802.007452933977</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.530066266137</v>
+        <v>1802.007452933977</v>
       </c>
       <c r="T13" t="n">
-        <v>1405.539232097734</v>
+        <v>1618.280523742993</v>
       </c>
       <c r="U13" t="n">
-        <v>1251.912670874369</v>
+        <v>1338.138822225497</v>
       </c>
       <c r="V13" t="n">
-        <v>970.2012034823979</v>
+        <v>1056.427354833526</v>
       </c>
       <c r="W13" t="n">
-        <v>695.3487996549109</v>
+        <v>781.5749510060392</v>
       </c>
       <c r="X13" t="n">
-        <v>452.784903100716</v>
+        <v>781.5749510060392</v>
       </c>
       <c r="Y13" t="n">
-        <v>226.4421347904579</v>
+        <v>555.2321826957813</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1012.079684174851</v>
+        <v>1044.598890213611</v>
       </c>
       <c r="C14" t="n">
-        <v>1012.079684174851</v>
+        <v>617.6981602269109</v>
       </c>
       <c r="D14" t="n">
-        <v>1012.079684174851</v>
+        <v>194.4055394119111</v>
       </c>
       <c r="E14" t="n">
-        <v>1012.079684174851</v>
+        <v>194.4055394119111</v>
       </c>
       <c r="F14" t="n">
-        <v>586.9555023642514</v>
+        <v>194.4055394119111</v>
       </c>
       <c r="G14" t="n">
-        <v>184.363552794051</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H14" t="n">
         <v>36.27616607839228</v>
       </c>
       <c r="I14" t="n">
-        <v>68.08893453872656</v>
+        <v>68.08893453872668</v>
       </c>
       <c r="J14" t="n">
-        <v>184.2963411149077</v>
+        <v>184.296341114908</v>
       </c>
       <c r="K14" t="n">
-        <v>366.7061291250297</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L14" t="n">
-        <v>598.99813723031</v>
+        <v>598.9981372303101</v>
       </c>
       <c r="M14" t="n">
         <v>862.6140377103479</v>
@@ -5314,16 +5314,16 @@
         <v>1813.808303919614</v>
       </c>
       <c r="V14" t="n">
-        <v>1813.808303919614</v>
+        <v>1456.318889045863</v>
       </c>
       <c r="W14" t="n">
-        <v>1417.416954219961</v>
+        <v>1456.318889045863</v>
       </c>
       <c r="X14" t="n">
-        <v>1417.416954219961</v>
+        <v>1044.598890213611</v>
       </c>
       <c r="Y14" t="n">
-        <v>1012.079684174851</v>
+        <v>1044.598890213611</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>593.4367873432373</v>
+        <v>593.4367873432374</v>
       </c>
       <c r="C15" t="n">
-        <v>475.930883860742</v>
+        <v>475.9308838607421</v>
       </c>
       <c r="D15" t="n">
-        <v>372.0909253760271</v>
+        <v>372.0909253760273</v>
       </c>
       <c r="E15" t="n">
-        <v>267.3889916489643</v>
+        <v>267.3889916489645</v>
       </c>
       <c r="F15" t="n">
-        <v>173.7431613318684</v>
+        <v>173.7431613318686</v>
       </c>
       <c r="G15" t="n">
-        <v>80.62417733004328</v>
+        <v>80.62417733004327</v>
       </c>
       <c r="H15" t="n">
         <v>36.27616607839228</v>
@@ -5363,46 +5363,46 @@
         <v>559.2924683663467</v>
       </c>
       <c r="L15" t="n">
-        <v>911.0584556169649</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M15" t="n">
-        <v>1120.33315409798</v>
+        <v>945.2060176780107</v>
       </c>
       <c r="N15" t="n">
-        <v>1337.488135930296</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O15" t="n">
-        <v>1532.531802917783</v>
+        <v>1357.404666497813</v>
       </c>
       <c r="P15" t="n">
-        <v>1685.929917764136</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q15" t="n">
-        <v>1780.360625738641</v>
+        <v>1674.905125453737</v>
       </c>
       <c r="R15" t="n">
-        <v>1813.808303919613</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S15" t="n">
-        <v>1749.84732951033</v>
+        <v>1749.847329510331</v>
       </c>
       <c r="T15" t="n">
-        <v>1611.735244555134</v>
+        <v>1611.735244555135</v>
       </c>
       <c r="U15" t="n">
-        <v>1427.028547670861</v>
+        <v>1427.028547670862</v>
       </c>
       <c r="V15" t="n">
-        <v>1222.055408810127</v>
+        <v>1222.055408810128</v>
       </c>
       <c r="W15" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X15" t="n">
-        <v>862.0566854100076</v>
+        <v>862.0566854100077</v>
       </c>
       <c r="Y15" t="n">
-        <v>722.3637967633</v>
+        <v>722.3637967633001</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1011.937267570567</v>
+        <v>703.1361940563016</v>
       </c>
       <c r="C16" t="n">
-        <v>839.9647044494834</v>
+        <v>703.1361940563016</v>
       </c>
       <c r="D16" t="n">
-        <v>676.6479315762541</v>
+        <v>539.8194211830723</v>
       </c>
       <c r="E16" t="n">
-        <v>510.4397257291076</v>
+        <v>373.6112153359259</v>
       </c>
       <c r="F16" t="n">
-        <v>338.577951503668</v>
+        <v>201.7494411104863</v>
       </c>
       <c r="G16" t="n">
-        <v>173.104676471574</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H16" t="n">
         <v>36.27616607839228</v>
@@ -5442,19 +5442,19 @@
         <v>463.838861142204</v>
       </c>
       <c r="L16" t="n">
-        <v>556.3346842424261</v>
+        <v>707.234275192427</v>
       </c>
       <c r="M16" t="n">
-        <v>654.3880318200453</v>
+        <v>805.2876227700463</v>
       </c>
       <c r="N16" t="n">
-        <v>1102.831680612252</v>
+        <v>1254.205177990151</v>
       </c>
       <c r="O16" t="n">
-        <v>1551.749235832356</v>
+        <v>1703.122733210255</v>
       </c>
       <c r="P16" t="n">
-        <v>1622.490343973492</v>
+        <v>1773.863841351391</v>
       </c>
       <c r="Q16" t="n">
         <v>1813.808303919614</v>
@@ -5463,25 +5463,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S16" t="n">
-        <v>1813.808303919614</v>
+        <v>1657.330917251774</v>
       </c>
       <c r="T16" t="n">
-        <v>1573.817469751211</v>
+        <v>1417.577526714533</v>
       </c>
       <c r="U16" t="n">
-        <v>1293.675768233716</v>
+        <v>1417.577526714533</v>
       </c>
       <c r="V16" t="n">
-        <v>1293.675768233716</v>
+        <v>1135.866059322562</v>
       </c>
       <c r="W16" t="n">
-        <v>1293.675768233716</v>
+        <v>1135.866059322562</v>
       </c>
       <c r="X16" t="n">
-        <v>1238.280035880825</v>
+        <v>893.3021627683672</v>
       </c>
       <c r="Y16" t="n">
-        <v>1011.937267570567</v>
+        <v>893.3021627683672</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.1768960650922</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="C17" t="n">
-        <v>36.27616607839228</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="D17" t="n">
-        <v>36.27616607839228</v>
+        <v>1325.960722827253</v>
       </c>
       <c r="E17" t="n">
-        <v>36.27616607839228</v>
+        <v>899.983782975111</v>
       </c>
       <c r="F17" t="n">
-        <v>36.27616607839228</v>
+        <v>474.8596011645112</v>
       </c>
       <c r="G17" t="n">
-        <v>36.27616607839228</v>
+        <v>72.26765159431085</v>
       </c>
       <c r="H17" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I17" t="n">
-        <v>68.08893453872679</v>
+        <v>68.08893453872669</v>
       </c>
       <c r="J17" t="n">
-        <v>184.2963411149079</v>
+        <v>184.296341114908</v>
       </c>
       <c r="K17" t="n">
-        <v>366.7061291250299</v>
+        <v>366.70612912503</v>
       </c>
       <c r="L17" t="n">
         <v>598.9981372303102</v>
       </c>
       <c r="M17" t="n">
-        <v>862.6140377103482</v>
+        <v>862.6140377103479</v>
       </c>
       <c r="N17" t="n">
         <v>1131.245262923652</v>
@@ -5542,25 +5542,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S17" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="T17" t="n">
-        <v>1600.530719422884</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="U17" t="n">
-        <v>1600.530719422884</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="V17" t="n">
-        <v>1600.530719422884</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="W17" t="n">
-        <v>1600.530719422884</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="X17" t="n">
-        <v>1288.362530401732</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="Y17" t="n">
-        <v>883.0252603566223</v>
+        <v>1749.253343642253</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>593.4367873432374</v>
+        <v>593.4367873432373</v>
       </c>
       <c r="C18" t="n">
-        <v>475.9308838607421</v>
+        <v>475.930883860742</v>
       </c>
       <c r="D18" t="n">
-        <v>372.0909253760273</v>
+        <v>372.090925376027</v>
       </c>
       <c r="E18" t="n">
-        <v>267.3889916489645</v>
+        <v>267.3889916489642</v>
       </c>
       <c r="F18" t="n">
-        <v>173.7431613318686</v>
+        <v>173.7431613318684</v>
       </c>
       <c r="G18" t="n">
-        <v>80.62417733004328</v>
+        <v>80.62417733004327</v>
       </c>
       <c r="H18" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I18" t="n">
-        <v>75.26691519968659</v>
+        <v>75.26691519968658</v>
       </c>
       <c r="J18" t="n">
-        <v>180.0465492813066</v>
+        <v>141.4213503255156</v>
       </c>
       <c r="K18" t="n">
-        <v>628.964104501411</v>
+        <v>267.1899758967556</v>
       </c>
       <c r="L18" t="n">
-        <v>805.60295533206</v>
+        <v>443.8288267274046</v>
       </c>
       <c r="M18" t="n">
-        <v>1014.877653813075</v>
+        <v>653.1035252084196</v>
       </c>
       <c r="N18" t="n">
-        <v>1232.032635645391</v>
+        <v>877.5457883997922</v>
       </c>
       <c r="O18" t="n">
-        <v>1427.076302632878</v>
+        <v>1072.589455387279</v>
       </c>
       <c r="P18" t="n">
-        <v>1580.474417479231</v>
+        <v>1225.987570233631</v>
       </c>
       <c r="Q18" t="n">
         <v>1674.905125453736</v>
       </c>
       <c r="R18" t="n">
-        <v>1813.808303919614</v>
+        <v>1813.808303919613</v>
       </c>
       <c r="S18" t="n">
-        <v>1749.847329510331</v>
+        <v>1749.84732951033</v>
       </c>
       <c r="T18" t="n">
-        <v>1611.735244555135</v>
+        <v>1611.735244555134</v>
       </c>
       <c r="U18" t="n">
-        <v>1427.028547670862</v>
+        <v>1427.028547670861</v>
       </c>
       <c r="V18" t="n">
-        <v>1222.055408810128</v>
+        <v>1222.055408810127</v>
       </c>
       <c r="W18" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X18" t="n">
-        <v>862.0566854100077</v>
+        <v>862.0566854100076</v>
       </c>
       <c r="Y18" t="n">
-        <v>722.3637967633001</v>
+        <v>722.3637967633</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>338.577951503668</v>
+        <v>208.2487291994763</v>
       </c>
       <c r="C19" t="n">
-        <v>338.577951503668</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="D19" t="n">
-        <v>338.577951503668</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="E19" t="n">
-        <v>338.577951503668</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="F19" t="n">
-        <v>338.577951503668</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="G19" t="n">
-        <v>173.104676471574</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="H19" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I19" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="J19" t="n">
         <v>148.0721041840598</v>
       </c>
       <c r="K19" t="n">
-        <v>463.3649547143058</v>
+        <v>463.838861142204</v>
       </c>
       <c r="L19" t="n">
-        <v>555.860777814528</v>
+        <v>556.3346842424261</v>
       </c>
       <c r="M19" t="n">
-        <v>653.9141253921472</v>
+        <v>1005.25223946253</v>
       </c>
       <c r="N19" t="n">
-        <v>1102.831680612252</v>
+        <v>1454.169794682635</v>
       </c>
       <c r="O19" t="n">
-        <v>1551.749235832356</v>
+        <v>1540.462922504959</v>
       </c>
       <c r="P19" t="n">
-        <v>1622.490343973492</v>
+        <v>1773.863841351391</v>
       </c>
       <c r="Q19" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="R19" t="n">
-        <v>1802.007452933977</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S19" t="n">
-        <v>1645.530066266137</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="T19" t="n">
-        <v>1405.539232097734</v>
+        <v>1704.026935512948</v>
       </c>
       <c r="U19" t="n">
-        <v>1405.539232097734</v>
+        <v>1423.885233995453</v>
       </c>
       <c r="V19" t="n">
-        <v>1123.827764705763</v>
+        <v>1142.173766603482</v>
       </c>
       <c r="W19" t="n">
-        <v>848.975360878276</v>
+        <v>867.3213627759948</v>
       </c>
       <c r="X19" t="n">
-        <v>755.0866885259916</v>
+        <v>624.7574662217999</v>
       </c>
       <c r="Y19" t="n">
-        <v>528.7439202157336</v>
+        <v>398.4146979115419</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1813.808303919614</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="C20" t="n">
-        <v>1813.808303919614</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="D20" t="n">
-        <v>1390.515683104614</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="E20" t="n">
-        <v>964.5387432524718</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="F20" t="n">
-        <v>539.414561441872</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="G20" t="n">
         <v>316.2519252281125</v>
       </c>
       <c r="H20" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I20" t="n">
         <v>68.08893453872679</v>
       </c>
       <c r="J20" t="n">
-        <v>184.296341114908</v>
+        <v>184.2963411149082</v>
       </c>
       <c r="K20" t="n">
-        <v>366.7061291250297</v>
+        <v>366.70612912503</v>
       </c>
       <c r="L20" t="n">
-        <v>598.99813723031</v>
+        <v>598.9981372303102</v>
       </c>
       <c r="M20" t="n">
-        <v>862.6140377103477</v>
+        <v>862.6140377103479</v>
       </c>
       <c r="N20" t="n">
         <v>1131.245262923652</v>
@@ -5782,22 +5782,22 @@
         <v>1813.808303919614</v>
       </c>
       <c r="T20" t="n">
-        <v>1813.808303919614</v>
+        <v>1730.939779748076</v>
       </c>
       <c r="U20" t="n">
-        <v>1813.808303919614</v>
+        <v>1472.724639371717</v>
       </c>
       <c r="V20" t="n">
-        <v>1813.808303919614</v>
+        <v>1115.235224497966</v>
       </c>
       <c r="W20" t="n">
-        <v>1813.808303919614</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="X20" t="n">
-        <v>1813.808303919614</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="Y20" t="n">
-        <v>1813.808303919614</v>
+        <v>718.8438747983129</v>
       </c>
     </row>
     <row r="21">
@@ -5813,43 +5813,43 @@
         <v>475.930883860742</v>
       </c>
       <c r="D21" t="n">
-        <v>372.0909253760271</v>
+        <v>372.090925376027</v>
       </c>
       <c r="E21" t="n">
-        <v>267.3889916489643</v>
+        <v>267.3889916489642</v>
       </c>
       <c r="F21" t="n">
         <v>173.7431613318684</v>
       </c>
       <c r="G21" t="n">
-        <v>80.62417733004328</v>
+        <v>80.62417733004327</v>
       </c>
       <c r="H21" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I21" t="n">
-        <v>75.26691519968659</v>
+        <v>75.26691519968658</v>
       </c>
       <c r="J21" t="n">
-        <v>433.5238427951067</v>
+        <v>433.5238427951066</v>
       </c>
       <c r="K21" t="n">
-        <v>559.2924683663467</v>
+        <v>559.2924683663466</v>
       </c>
       <c r="L21" t="n">
-        <v>735.9313191969957</v>
+        <v>735.9313191969954</v>
       </c>
       <c r="M21" t="n">
-        <v>945.2060176780108</v>
+        <v>945.2060176780104</v>
       </c>
       <c r="N21" t="n">
-        <v>1232.032635645391</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O21" t="n">
-        <v>1427.076302632877</v>
+        <v>1357.404666497813</v>
       </c>
       <c r="P21" t="n">
-        <v>1580.47441747923</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q21" t="n">
         <v>1674.905125453736</v>
@@ -5886,46 +5886,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>633.0333687827217</v>
+        <v>208.2487291994763</v>
       </c>
       <c r="C22" t="n">
-        <v>461.0608056616377</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="D22" t="n">
-        <v>297.7440327884084</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="E22" t="n">
-        <v>284.3386723770731</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="F22" t="n">
-        <v>112.4768981516335</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="G22" t="n">
-        <v>112.4768981516335</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="H22" t="n">
-        <v>112.4768981516335</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I22" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="J22" t="n">
-        <v>70.15038753583897</v>
+        <v>70.15038753583895</v>
       </c>
       <c r="K22" t="n">
-        <v>138.6345353799611</v>
+        <v>385.9171444939831</v>
       </c>
       <c r="L22" t="n">
-        <v>587.5520906000656</v>
+        <v>834.8346997140875</v>
       </c>
       <c r="M22" t="n">
-        <v>1036.46964582017</v>
+        <v>932.8880472917067</v>
       </c>
       <c r="N22" t="n">
-        <v>1133.468351912118</v>
+        <v>1029.886753383655</v>
       </c>
       <c r="O22" t="n">
-        <v>1390.366528636948</v>
+        <v>1390.366528636947</v>
       </c>
       <c r="P22" t="n">
         <v>1773.863841351391</v>
@@ -5934,28 +5934,28 @@
         <v>1813.808303919614</v>
       </c>
       <c r="R22" t="n">
-        <v>1813.808303919614</v>
+        <v>1802.007452933977</v>
       </c>
       <c r="S22" t="n">
-        <v>1813.808303919614</v>
+        <v>1662.30630228938</v>
       </c>
       <c r="T22" t="n">
-        <v>1573.817469751211</v>
+        <v>1422.315468120977</v>
       </c>
       <c r="U22" t="n">
-        <v>1573.817469751211</v>
+        <v>1142.173766603482</v>
       </c>
       <c r="V22" t="n">
-        <v>1292.10600235924</v>
+        <v>1142.173766603482</v>
       </c>
       <c r="W22" t="n">
-        <v>1292.10600235924</v>
+        <v>867.3213627759948</v>
       </c>
       <c r="X22" t="n">
-        <v>1049.542105805045</v>
+        <v>624.7574662217999</v>
       </c>
       <c r="Y22" t="n">
-        <v>823.1993374947874</v>
+        <v>398.4146979115419</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>312.2873778696222</v>
+        <v>1463.377047028857</v>
       </c>
       <c r="C23" t="n">
-        <v>47.05578938100128</v>
+        <v>1036.476317042157</v>
       </c>
       <c r="D23" t="n">
-        <v>47.05578938100128</v>
+        <v>613.1836962271577</v>
       </c>
       <c r="E23" t="n">
-        <v>47.05578938100128</v>
+        <v>187.2067563750153</v>
       </c>
       <c r="F23" t="n">
-        <v>47.05578938100128</v>
+        <v>187.2067563750153</v>
       </c>
       <c r="G23" t="n">
-        <v>47.05578938100128</v>
+        <v>47.05578938100126</v>
       </c>
       <c r="H23" t="n">
-        <v>47.05578938100128</v>
+        <v>47.05578938100126</v>
       </c>
       <c r="I23" t="n">
-        <v>95.21747017774601</v>
+        <v>95.21747017774587</v>
       </c>
       <c r="J23" t="n">
-        <v>247.4171859015156</v>
+        <v>247.4171859015154</v>
       </c>
       <c r="K23" t="n">
-        <v>483.7701152802293</v>
+        <v>483.7701152802288</v>
       </c>
       <c r="L23" t="n">
-        <v>782.9833602320967</v>
+        <v>782.9833602320966</v>
       </c>
       <c r="M23" t="n">
-        <v>1121.062031045854</v>
+        <v>1121.062031045853</v>
       </c>
       <c r="N23" t="n">
-        <v>1465.360912065305</v>
+        <v>1465.360912065304</v>
       </c>
       <c r="O23" t="n">
-        <v>1788.305602292445</v>
+        <v>1788.305602292444</v>
       </c>
       <c r="P23" t="n">
-        <v>2058.325011172257</v>
+        <v>2058.325011172256</v>
       </c>
       <c r="Q23" t="n">
-        <v>2253.270270684834</v>
+        <v>2253.270270684833</v>
       </c>
       <c r="R23" t="n">
-        <v>2352.789469050064</v>
+        <v>2352.789469050063</v>
       </c>
       <c r="S23" t="n">
-        <v>2352.789469050064</v>
+        <v>2352.789469050063</v>
       </c>
       <c r="T23" t="n">
-        <v>2141.405937367758</v>
+        <v>2141.405937367757</v>
       </c>
       <c r="U23" t="n">
-        <v>1883.225411320388</v>
+        <v>1883.225411320387</v>
       </c>
       <c r="V23" t="n">
-        <v>1525.735996446638</v>
+        <v>1883.225411320387</v>
       </c>
       <c r="W23" t="n">
-        <v>1129.344646746985</v>
+        <v>1883.225411320387</v>
       </c>
       <c r="X23" t="n">
-        <v>717.6246479147319</v>
+        <v>1883.225411320387</v>
       </c>
       <c r="Y23" t="n">
-        <v>312.2873778696222</v>
+        <v>1883.225411320387</v>
       </c>
     </row>
     <row r="24">
@@ -6062,34 +6062,34 @@
         <v>89.16796193353963</v>
       </c>
       <c r="H24" t="n">
-        <v>47.05578938100128</v>
+        <v>47.05578938100126</v>
       </c>
       <c r="I24" t="n">
-        <v>93.85855587089341</v>
+        <v>93.8585558708934</v>
       </c>
       <c r="J24" t="n">
-        <v>268.9453981522966</v>
+        <v>181.4497637530238</v>
       </c>
       <c r="K24" t="n">
-        <v>431.3528827629846</v>
+        <v>343.8572483637117</v>
       </c>
       <c r="L24" t="n">
-        <v>657.2572010882112</v>
+        <v>569.7615666889384</v>
       </c>
       <c r="M24" t="n">
-        <v>924.0223764334169</v>
+        <v>836.526742034144</v>
       </c>
       <c r="N24" t="n">
-        <v>1200.189436984266</v>
+        <v>1112.693802584993</v>
       </c>
       <c r="O24" t="n">
-        <v>1449.217627053832</v>
+        <v>1361.721992654559</v>
       </c>
       <c r="P24" t="n">
-        <v>1645.94308103318</v>
+        <v>1558.447446633907</v>
       </c>
       <c r="Q24" t="n">
-        <v>1769.336967796943</v>
+        <v>1681.84133339767</v>
       </c>
       <c r="R24" t="n">
         <v>1816.872151439045</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>461.6911861839571</v>
+        <v>676.9628768877458</v>
       </c>
       <c r="C25" t="n">
-        <v>289.7186230628731</v>
+        <v>676.9628768877458</v>
       </c>
       <c r="D25" t="n">
-        <v>126.4018501896438</v>
+        <v>513.6461040145165</v>
       </c>
       <c r="E25" t="n">
-        <v>126.4018501896438</v>
+        <v>347.43789816737</v>
       </c>
       <c r="F25" t="n">
-        <v>47.05578938100128</v>
+        <v>347.43789816737</v>
       </c>
       <c r="G25" t="n">
-        <v>47.05578938100128</v>
+        <v>182.1587080895772</v>
       </c>
       <c r="H25" t="n">
-        <v>47.05578938100128</v>
+        <v>47.05578938100126</v>
       </c>
       <c r="I25" t="n">
-        <v>47.05578938100128</v>
+        <v>47.05578938100126</v>
       </c>
       <c r="J25" t="n">
         <v>172.3004698110126</v>
@@ -6153,46 +6153,46 @@
         <v>510.1676416984502</v>
       </c>
       <c r="L25" t="n">
-        <v>1007.333280592784</v>
+        <v>646.7382370825126</v>
       </c>
       <c r="M25" t="n">
-        <v>1548.740375818343</v>
+        <v>1188.145332308071</v>
       </c>
       <c r="N25" t="n">
-        <v>1674.848337348851</v>
+        <v>1712.286216680459</v>
       </c>
       <c r="O25" t="n">
-        <v>2051.795280295119</v>
+        <v>2203.168777673018</v>
       </c>
       <c r="P25" t="n">
-        <v>2145.542954963588</v>
+        <v>2296.916452341487</v>
       </c>
       <c r="Q25" t="n">
-        <v>2352.789469050064</v>
+        <v>2352.789469050063</v>
       </c>
       <c r="R25" t="n">
-        <v>2349.715383373281</v>
+        <v>2352.789469050063</v>
       </c>
       <c r="S25" t="n">
-        <v>2196.62036813631</v>
+        <v>2199.694453813092</v>
       </c>
       <c r="T25" t="n">
-        <v>1957.458806045376</v>
+        <v>1960.532891722158</v>
       </c>
       <c r="U25" t="n">
-        <v>1677.327690979934</v>
+        <v>1680.401776656715</v>
       </c>
       <c r="V25" t="n">
-        <v>1395.616223587963</v>
+        <v>1398.690309264744</v>
       </c>
       <c r="W25" t="n">
-        <v>1120.763819760476</v>
+        <v>1145.869541752199</v>
       </c>
       <c r="X25" t="n">
-        <v>878.1999232062807</v>
+        <v>903.3056451980037</v>
       </c>
       <c r="Y25" t="n">
-        <v>651.8571548960227</v>
+        <v>676.9628768877458</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>895.4725920066007</v>
+        <v>1748.350261845443</v>
       </c>
       <c r="C26" t="n">
-        <v>895.4725920066007</v>
+        <v>1321.449531858743</v>
       </c>
       <c r="D26" t="n">
-        <v>472.1799711916011</v>
+        <v>898.1569110437435</v>
       </c>
       <c r="E26" t="n">
         <v>472.1799711916011</v>
       </c>
       <c r="F26" t="n">
-        <v>47.05578938100125</v>
+        <v>47.05578938100126</v>
       </c>
       <c r="G26" t="n">
-        <v>47.05578938100125</v>
+        <v>47.05578938100126</v>
       </c>
       <c r="H26" t="n">
-        <v>47.05578938100125</v>
+        <v>47.05578938100126</v>
       </c>
       <c r="I26" t="n">
-        <v>95.21747017774589</v>
+        <v>95.21747017774578</v>
       </c>
       <c r="J26" t="n">
-        <v>247.4171859015154</v>
+        <v>247.4171859015153</v>
       </c>
       <c r="K26" t="n">
-        <v>483.7701152802292</v>
+        <v>483.7701152802291</v>
       </c>
       <c r="L26" t="n">
-        <v>782.9833602320966</v>
+        <v>782.9833602320965</v>
       </c>
       <c r="M26" t="n">
         <v>1121.062031045853</v>
@@ -6244,34 +6244,34 @@
         <v>1788.305602292444</v>
       </c>
       <c r="P26" t="n">
-        <v>2058.325011172255</v>
+        <v>2058.325011172256</v>
       </c>
       <c r="Q26" t="n">
-        <v>2253.270270684832</v>
+        <v>2253.270270684833</v>
       </c>
       <c r="R26" t="n">
         <v>2352.789469050063</v>
       </c>
       <c r="S26" t="n">
-        <v>2319.253881459627</v>
+        <v>2352.789469050063</v>
       </c>
       <c r="T26" t="n">
-        <v>2319.253881459627</v>
+        <v>2352.789469050063</v>
       </c>
       <c r="U26" t="n">
-        <v>2061.073355412257</v>
+        <v>2352.789469050063</v>
       </c>
       <c r="V26" t="n">
-        <v>1703.583940538507</v>
+        <v>2352.789469050063</v>
       </c>
       <c r="W26" t="n">
-        <v>1307.192590838853</v>
+        <v>2352.789469050063</v>
       </c>
       <c r="X26" t="n">
-        <v>895.4725920066007</v>
+        <v>1941.06947021781</v>
       </c>
       <c r="Y26" t="n">
-        <v>895.4725920066007</v>
+        <v>1941.06947021781</v>
       </c>
     </row>
     <row r="27">
@@ -6296,37 +6296,37 @@
         <v>182.0554422008518</v>
       </c>
       <c r="G27" t="n">
-        <v>89.16796193353962</v>
+        <v>89.16796193353963</v>
       </c>
       <c r="H27" t="n">
-        <v>47.05578938100125</v>
+        <v>47.05578938100126</v>
       </c>
       <c r="I27" t="n">
-        <v>93.85855587089338</v>
+        <v>70.40125002648155</v>
       </c>
       <c r="J27" t="n">
-        <v>181.4497637530238</v>
+        <v>157.9924579086119</v>
       </c>
       <c r="K27" t="n">
-        <v>343.8572483637117</v>
+        <v>320.3999425192999</v>
       </c>
       <c r="L27" t="n">
-        <v>569.7615666889384</v>
+        <v>546.3042608445265</v>
       </c>
       <c r="M27" t="n">
-        <v>836.526742034144</v>
+        <v>813.0694361897321</v>
       </c>
       <c r="N27" t="n">
-        <v>1112.693802584993</v>
+        <v>1089.236496740581</v>
       </c>
       <c r="O27" t="n">
-        <v>1361.721992654559</v>
+        <v>1338.264686810147</v>
       </c>
       <c r="P27" t="n">
-        <v>1558.447446633907</v>
+        <v>1534.990140789495</v>
       </c>
       <c r="Q27" t="n">
-        <v>1681.84133339767</v>
+        <v>1769.336967796943</v>
       </c>
       <c r="R27" t="n">
         <v>1816.872151439045</v>
@@ -6360,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>464.7652718607382</v>
+        <v>464.7652718607387</v>
       </c>
       <c r="C28" t="n">
-        <v>464.7652718607382</v>
+        <v>292.7927087396547</v>
       </c>
       <c r="D28" t="n">
-        <v>348.3669139367237</v>
+        <v>292.7927087396547</v>
       </c>
       <c r="E28" t="n">
-        <v>182.1587080895772</v>
+        <v>292.7927087396547</v>
       </c>
       <c r="F28" t="n">
-        <v>182.1587080895772</v>
+        <v>120.9309345142151</v>
       </c>
       <c r="G28" t="n">
-        <v>182.1587080895772</v>
+        <v>47.05578938100126</v>
       </c>
       <c r="H28" t="n">
-        <v>47.05578938100125</v>
+        <v>47.05578938100126</v>
       </c>
       <c r="I28" t="n">
-        <v>47.05578938100125</v>
+        <v>47.05578938100126</v>
       </c>
       <c r="J28" t="n">
         <v>94.37875316279178</v>
       </c>
       <c r="K28" t="n">
-        <v>184.9633159362073</v>
+        <v>184.9633159362072</v>
       </c>
       <c r="L28" t="n">
-        <v>646.7382370825117</v>
+        <v>682.1289548305413</v>
       </c>
       <c r="M28" t="n">
-        <v>1188.14533230807</v>
+        <v>1223.5360500561</v>
       </c>
       <c r="N28" t="n">
-        <v>1712.286216680458</v>
+        <v>1747.676934428488</v>
       </c>
       <c r="O28" t="n">
-        <v>2203.168777673017</v>
+        <v>2203.168777673018</v>
       </c>
       <c r="P28" t="n">
-        <v>2296.916452341486</v>
+        <v>2296.916452341487</v>
       </c>
       <c r="Q28" t="n">
         <v>2352.789469050063</v>
@@ -6411,7 +6411,7 @@
         <v>2352.789469050063</v>
       </c>
       <c r="S28" t="n">
-        <v>2199.694453813091</v>
+        <v>2199.694453813092</v>
       </c>
       <c r="T28" t="n">
         <v>1960.532891722158</v>
@@ -6426,10 +6426,10 @@
         <v>1123.837905437257</v>
       </c>
       <c r="X28" t="n">
-        <v>881.2740088830618</v>
+        <v>881.2740088830623</v>
       </c>
       <c r="Y28" t="n">
-        <v>654.9312405728039</v>
+        <v>654.9312405728043</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1575.860765691672</v>
+        <v>2039.913657998591</v>
       </c>
       <c r="C29" t="n">
-        <v>1575.860765691672</v>
+        <v>1613.012928011892</v>
       </c>
       <c r="D29" t="n">
-        <v>1575.860765691672</v>
+        <v>1189.720307196892</v>
       </c>
       <c r="E29" t="n">
-        <v>1149.88382583953</v>
+        <v>763.7433673447493</v>
       </c>
       <c r="F29" t="n">
-        <v>724.7596440289299</v>
+        <v>338.6191855341496</v>
       </c>
       <c r="G29" t="n">
         <v>322.6003735711051</v>
       </c>
       <c r="H29" t="n">
-        <v>47.05578938100128</v>
+        <v>47.05578938100126</v>
       </c>
       <c r="I29" t="n">
-        <v>95.21747017774601</v>
+        <v>95.21747017774578</v>
       </c>
       <c r="J29" t="n">
-        <v>247.4171859015156</v>
+        <v>247.4171859015153</v>
       </c>
       <c r="K29" t="n">
-        <v>483.7701152802293</v>
+        <v>483.7701152802291</v>
       </c>
       <c r="L29" t="n">
-        <v>782.9833602320967</v>
+        <v>782.9833602320965</v>
       </c>
       <c r="M29" t="n">
         <v>1121.062031045853</v>
@@ -6478,37 +6478,37 @@
         <v>1465.360912065304</v>
       </c>
       <c r="O29" t="n">
-        <v>1788.305602292445</v>
+        <v>1788.305602292444</v>
       </c>
       <c r="P29" t="n">
-        <v>2058.325011172257</v>
+        <v>2058.325011172256</v>
       </c>
       <c r="Q29" t="n">
-        <v>2253.270270684834</v>
+        <v>2253.270270684833</v>
       </c>
       <c r="R29" t="n">
-        <v>2352.789469050064</v>
+        <v>2352.789469050063</v>
       </c>
       <c r="S29" t="n">
-        <v>2298.094184045962</v>
+        <v>2298.094184045961</v>
       </c>
       <c r="T29" t="n">
-        <v>2298.094184045962</v>
+        <v>2298.094184045961</v>
       </c>
       <c r="U29" t="n">
-        <v>2298.094184045962</v>
+        <v>2039.913657998591</v>
       </c>
       <c r="V29" t="n">
-        <v>1940.604769172211</v>
+        <v>2039.913657998591</v>
       </c>
       <c r="W29" t="n">
-        <v>1940.604769172211</v>
+        <v>2039.913657998591</v>
       </c>
       <c r="X29" t="n">
-        <v>1940.604769172211</v>
+        <v>2039.913657998591</v>
       </c>
       <c r="Y29" t="n">
-        <v>1575.860765691672</v>
+        <v>2039.913657998591</v>
       </c>
     </row>
     <row r="30">
@@ -6536,31 +6536,31 @@
         <v>89.16796193353963</v>
       </c>
       <c r="H30" t="n">
-        <v>47.05578938100128</v>
+        <v>47.05578938100126</v>
       </c>
       <c r="I30" t="n">
-        <v>93.85855587089341</v>
+        <v>70.40125002648155</v>
       </c>
       <c r="J30" t="n">
-        <v>181.4497637530238</v>
+        <v>157.9924579086119</v>
       </c>
       <c r="K30" t="n">
-        <v>343.8572483637118</v>
+        <v>320.3999425192999</v>
       </c>
       <c r="L30" t="n">
-        <v>569.7615666889385</v>
+        <v>546.3042608445265</v>
       </c>
       <c r="M30" t="n">
-        <v>836.5267420341441</v>
+        <v>813.0694361897321</v>
       </c>
       <c r="N30" t="n">
-        <v>1200.189436984266</v>
+        <v>1089.236496740581</v>
       </c>
       <c r="O30" t="n">
-        <v>1449.217627053832</v>
+        <v>1338.264686810147</v>
       </c>
       <c r="P30" t="n">
-        <v>1645.94308103318</v>
+        <v>1534.990140789495</v>
       </c>
       <c r="Q30" t="n">
         <v>1769.336967796943</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>464.7652718607396</v>
+        <v>924.9530765619227</v>
       </c>
       <c r="C31" t="n">
-        <v>292.7927087396556</v>
+        <v>752.9805134408386</v>
       </c>
       <c r="D31" t="n">
-        <v>129.4759358664263</v>
+        <v>589.6637405676094</v>
       </c>
       <c r="E31" t="n">
-        <v>47.05578938100128</v>
+        <v>589.6637405676094</v>
       </c>
       <c r="F31" t="n">
-        <v>47.05578938100128</v>
+        <v>417.8019663421697</v>
       </c>
       <c r="G31" t="n">
-        <v>47.05578938100128</v>
+        <v>252.522776264377</v>
       </c>
       <c r="H31" t="n">
-        <v>47.05578938100128</v>
+        <v>117.419857555801</v>
       </c>
       <c r="I31" t="n">
-        <v>47.05578938100128</v>
+        <v>47.05578938100126</v>
       </c>
       <c r="J31" t="n">
-        <v>172.3004698110126</v>
+        <v>94.37875316279178</v>
       </c>
       <c r="K31" t="n">
-        <v>510.1676416984502</v>
+        <v>184.9633159362072</v>
       </c>
       <c r="L31" t="n">
-        <v>958.3437822763899</v>
+        <v>305.7400612393764</v>
       </c>
       <c r="M31" t="n">
-        <v>1499.750877501949</v>
+        <v>847.1471564649352</v>
       </c>
       <c r="N31" t="n">
-        <v>1625.858839032456</v>
+        <v>1371.288040837323</v>
       </c>
       <c r="O31" t="n">
-        <v>1739.039075721812</v>
+        <v>1862.170601829881</v>
       </c>
       <c r="P31" t="n">
-        <v>2145.542954963588</v>
+        <v>2145.542954963587</v>
       </c>
       <c r="Q31" t="n">
-        <v>2352.789469050064</v>
+        <v>2352.789469050063</v>
       </c>
       <c r="R31" t="n">
-        <v>2352.789469050064</v>
+        <v>2349.71538337328</v>
       </c>
       <c r="S31" t="n">
-        <v>2199.694453813092</v>
+        <v>2196.620368136309</v>
       </c>
       <c r="T31" t="n">
-        <v>1960.532891722159</v>
+        <v>1957.458806045375</v>
       </c>
       <c r="U31" t="n">
-        <v>1680.401776656716</v>
+        <v>1914.246813047641</v>
       </c>
       <c r="V31" t="n">
-        <v>1398.690309264745</v>
+        <v>1632.53534565567</v>
       </c>
       <c r="W31" t="n">
-        <v>1123.837905437258</v>
+        <v>1357.682941828183</v>
       </c>
       <c r="X31" t="n">
-        <v>881.2740088830632</v>
+        <v>1115.119045273988</v>
       </c>
       <c r="Y31" t="n">
-        <v>654.9312405728052</v>
+        <v>1115.119045273988</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1302.092729677668</v>
+        <v>2298.094184045961</v>
       </c>
       <c r="C32" t="n">
-        <v>875.1919996909685</v>
+        <v>1871.193454059261</v>
       </c>
       <c r="D32" t="n">
-        <v>875.1919996909685</v>
+        <v>1447.900833244261</v>
       </c>
       <c r="E32" t="n">
-        <v>449.2150598388261</v>
+        <v>1021.923893392119</v>
       </c>
       <c r="F32" t="n">
-        <v>449.2150598388261</v>
+        <v>596.7997115815191</v>
       </c>
       <c r="G32" t="n">
-        <v>47.05578938100127</v>
+        <v>194.6404411236943</v>
       </c>
       <c r="H32" t="n">
-        <v>47.05578938100127</v>
+        <v>47.05578938100126</v>
       </c>
       <c r="I32" t="n">
-        <v>95.21747017774578</v>
+        <v>95.21747017774589</v>
       </c>
       <c r="J32" t="n">
-        <v>247.4171859015159</v>
+        <v>247.4171859015154</v>
       </c>
       <c r="K32" t="n">
-        <v>483.7701152802298</v>
+        <v>483.7701152802291</v>
       </c>
       <c r="L32" t="n">
-        <v>782.9833602320973</v>
+        <v>782.9833602320964</v>
       </c>
       <c r="M32" t="n">
         <v>1121.062031045853</v>
       </c>
       <c r="N32" t="n">
-        <v>1465.360912065305</v>
+        <v>1465.360912065304</v>
       </c>
       <c r="O32" t="n">
-        <v>1788.305602292445</v>
+        <v>1788.305602292444</v>
       </c>
       <c r="P32" t="n">
         <v>2058.325011172256</v>
@@ -6727,25 +6727,25 @@
         <v>2352.789469050063</v>
       </c>
       <c r="S32" t="n">
-        <v>2352.789469050063</v>
+        <v>2298.094184045961</v>
       </c>
       <c r="T32" t="n">
-        <v>2352.789469050063</v>
+        <v>2298.094184045961</v>
       </c>
       <c r="U32" t="n">
-        <v>2110.204078209574</v>
+        <v>2298.094184045961</v>
       </c>
       <c r="V32" t="n">
-        <v>2110.204078209574</v>
+        <v>2298.094184045961</v>
       </c>
       <c r="W32" t="n">
-        <v>1713.812728509921</v>
+        <v>2298.094184045961</v>
       </c>
       <c r="X32" t="n">
-        <v>1302.092729677668</v>
+        <v>2298.094184045961</v>
       </c>
       <c r="Y32" t="n">
-        <v>1302.092729677668</v>
+        <v>2298.094184045961</v>
       </c>
     </row>
     <row r="33">
@@ -6773,34 +6773,34 @@
         <v>89.16796193353963</v>
       </c>
       <c r="H33" t="n">
-        <v>47.05578938100127</v>
+        <v>47.05578938100126</v>
       </c>
       <c r="I33" t="n">
-        <v>75.89868998526013</v>
+        <v>93.8585558708934</v>
       </c>
       <c r="J33" t="n">
-        <v>163.4898978673905</v>
+        <v>181.4497637530238</v>
       </c>
       <c r="K33" t="n">
-        <v>325.8973824780785</v>
+        <v>343.8572483637117</v>
       </c>
       <c r="L33" t="n">
-        <v>551.8017008033052</v>
+        <v>569.7615666889384</v>
       </c>
       <c r="M33" t="n">
-        <v>818.5668761485108</v>
+        <v>836.5267420341439</v>
       </c>
       <c r="N33" t="n">
-        <v>1094.73393669936</v>
+        <v>1112.693802584993</v>
       </c>
       <c r="O33" t="n">
-        <v>1343.762126768926</v>
+        <v>1361.721992654559</v>
       </c>
       <c r="P33" t="n">
-        <v>1540.487580748274</v>
+        <v>1558.447446633907</v>
       </c>
       <c r="Q33" t="n">
-        <v>1663.881467512037</v>
+        <v>1681.84133339767</v>
       </c>
       <c r="R33" t="n">
         <v>1816.872151439045</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>582.0477549847527</v>
+        <v>889.6386052484145</v>
       </c>
       <c r="C34" t="n">
-        <v>582.0477549847527</v>
+        <v>717.6660421273305</v>
       </c>
       <c r="D34" t="n">
-        <v>418.7309821115234</v>
+        <v>554.3492692541012</v>
       </c>
       <c r="E34" t="n">
-        <v>252.522776264377</v>
+        <v>388.1410634069547</v>
       </c>
       <c r="F34" t="n">
         <v>252.522776264377</v>
@@ -6855,25 +6855,25 @@
         <v>117.419857555801</v>
       </c>
       <c r="I34" t="n">
-        <v>47.05578938100127</v>
+        <v>47.05578938100126</v>
       </c>
       <c r="J34" t="n">
-        <v>94.3787531627918</v>
+        <v>94.37875316279178</v>
       </c>
       <c r="K34" t="n">
-        <v>184.9633159362073</v>
+        <v>184.9633159362072</v>
       </c>
       <c r="L34" t="n">
-        <v>682.1289548305414</v>
+        <v>646.7382370825126</v>
       </c>
       <c r="M34" t="n">
-        <v>875.389127734764</v>
+        <v>1188.145332308071</v>
       </c>
       <c r="N34" t="n">
-        <v>1399.530012107152</v>
+        <v>1712.286216680459</v>
       </c>
       <c r="O34" t="n">
-        <v>1890.41257309971</v>
+        <v>2203.168777673018</v>
       </c>
       <c r="P34" t="n">
         <v>2296.916452341487</v>
@@ -6882,28 +6882,28 @@
         <v>2352.789469050063</v>
       </c>
       <c r="R34" t="n">
-        <v>2349.715383373281</v>
+        <v>2349.71538337328</v>
       </c>
       <c r="S34" t="n">
-        <v>2196.620368136309</v>
+        <v>2349.71538337328</v>
       </c>
       <c r="T34" t="n">
-        <v>1957.458806045376</v>
+        <v>2110.553821282347</v>
       </c>
       <c r="U34" t="n">
-        <v>1677.327690979933</v>
+        <v>1830.422706216904</v>
       </c>
       <c r="V34" t="n">
-        <v>1395.616223587962</v>
+        <v>1548.711238824933</v>
       </c>
       <c r="W34" t="n">
-        <v>1120.763819760475</v>
+        <v>1548.711238824933</v>
       </c>
       <c r="X34" t="n">
-        <v>998.5564920070763</v>
+        <v>1306.147342270738</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2137236968183</v>
+        <v>1079.80457396048</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1575.860765691672</v>
+        <v>1748.350261845443</v>
       </c>
       <c r="C35" t="n">
-        <v>1575.860765691672</v>
+        <v>1321.449531858743</v>
       </c>
       <c r="D35" t="n">
-        <v>1575.860765691672</v>
+        <v>898.1569110437435</v>
       </c>
       <c r="E35" t="n">
-        <v>1149.88382583953</v>
+        <v>472.1799711916011</v>
       </c>
       <c r="F35" t="n">
-        <v>724.7596440289299</v>
+        <v>47.05578938100124</v>
       </c>
       <c r="G35" t="n">
-        <v>322.6003735711051</v>
+        <v>47.05578938100124</v>
       </c>
       <c r="H35" t="n">
-        <v>47.05578938100128</v>
+        <v>47.05578938100124</v>
       </c>
       <c r="I35" t="n">
-        <v>95.21747017774578</v>
+        <v>95.21747017774584</v>
       </c>
       <c r="J35" t="n">
-        <v>247.417185901515</v>
+        <v>247.4171859015153</v>
       </c>
       <c r="K35" t="n">
-        <v>483.7701152802289</v>
+        <v>483.770115280229</v>
       </c>
       <c r="L35" t="n">
         <v>782.9833602320964</v>
       </c>
       <c r="M35" t="n">
-        <v>1121.062031045853</v>
+        <v>1121.062031045852</v>
       </c>
       <c r="N35" t="n">
-        <v>1465.360912065305</v>
+        <v>1465.360912065304</v>
       </c>
       <c r="O35" t="n">
-        <v>1788.305602292444</v>
+        <v>1788.305602292443</v>
       </c>
       <c r="P35" t="n">
-        <v>2058.325011172257</v>
+        <v>2058.325011172255</v>
       </c>
       <c r="Q35" t="n">
-        <v>2253.270270684834</v>
+        <v>2253.270270684832</v>
       </c>
       <c r="R35" t="n">
-        <v>2352.789469050064</v>
+        <v>2352.789469050062</v>
       </c>
       <c r="S35" t="n">
-        <v>2352.789469050064</v>
+        <v>2352.789469050062</v>
       </c>
       <c r="T35" t="n">
-        <v>2352.789469050064</v>
+        <v>2352.789469050062</v>
       </c>
       <c r="U35" t="n">
-        <v>2094.608943002694</v>
+        <v>2168.198626136973</v>
       </c>
       <c r="V35" t="n">
-        <v>2094.608943002694</v>
+        <v>2168.198626136973</v>
       </c>
       <c r="W35" t="n">
-        <v>2094.608943002694</v>
+        <v>2168.198626136973</v>
       </c>
       <c r="X35" t="n">
-        <v>2094.608943002694</v>
+        <v>2168.198626136973</v>
       </c>
       <c r="Y35" t="n">
-        <v>1689.271672957585</v>
+        <v>2168.198626136973</v>
       </c>
     </row>
     <row r="36">
@@ -7004,40 +7004,40 @@
         <v>275.7012725179476</v>
       </c>
       <c r="F36" t="n">
-        <v>182.0554422008518</v>
+        <v>182.0554422008517</v>
       </c>
       <c r="G36" t="n">
-        <v>89.16796193353963</v>
+        <v>89.1679619335396</v>
       </c>
       <c r="H36" t="n">
-        <v>47.05578938100128</v>
+        <v>47.05578938100124</v>
       </c>
       <c r="I36" t="n">
-        <v>70.40125002648158</v>
+        <v>93.85855587089338</v>
       </c>
       <c r="J36" t="n">
-        <v>268.9453981522966</v>
+        <v>181.4497637530238</v>
       </c>
       <c r="K36" t="n">
-        <v>431.3528827629846</v>
+        <v>343.8572483637117</v>
       </c>
       <c r="L36" t="n">
-        <v>657.2572010882112</v>
+        <v>569.7615666889384</v>
       </c>
       <c r="M36" t="n">
-        <v>924.0223764334169</v>
+        <v>836.5267420341439</v>
       </c>
       <c r="N36" t="n">
-        <v>1200.189436984266</v>
+        <v>1112.693802584993</v>
       </c>
       <c r="O36" t="n">
-        <v>1449.217627053832</v>
+        <v>1361.721992654559</v>
       </c>
       <c r="P36" t="n">
-        <v>1645.94308103318</v>
+        <v>1558.447446633907</v>
       </c>
       <c r="Q36" t="n">
-        <v>1769.336967796943</v>
+        <v>1681.84133339767</v>
       </c>
       <c r="R36" t="n">
         <v>1816.872151439045</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>461.6911861839571</v>
+        <v>461.6911861839553</v>
       </c>
       <c r="C37" t="n">
-        <v>461.6911861839571</v>
+        <v>289.7186230628713</v>
       </c>
       <c r="D37" t="n">
-        <v>348.3669139367237</v>
+        <v>289.7186230628713</v>
       </c>
       <c r="E37" t="n">
-        <v>182.1587080895773</v>
+        <v>289.2816317812405</v>
       </c>
       <c r="F37" t="n">
-        <v>182.1587080895773</v>
+        <v>117.419857555801</v>
       </c>
       <c r="G37" t="n">
-        <v>182.1587080895773</v>
+        <v>117.419857555801</v>
       </c>
       <c r="H37" t="n">
-        <v>47.05578938100128</v>
+        <v>117.419857555801</v>
       </c>
       <c r="I37" t="n">
-        <v>47.05578938100128</v>
+        <v>47.05578938100124</v>
       </c>
       <c r="J37" t="n">
-        <v>172.3004698110126</v>
+        <v>94.37875316279175</v>
       </c>
       <c r="K37" t="n">
-        <v>510.1676416984502</v>
+        <v>396.2320236521586</v>
       </c>
       <c r="L37" t="n">
-        <v>1007.333280592784</v>
+        <v>893.3976625464927</v>
       </c>
       <c r="M37" t="n">
-        <v>1135.204895355521</v>
+        <v>1434.804757772052</v>
       </c>
       <c r="N37" t="n">
-        <v>1399.530012107152</v>
+        <v>1560.912719302559</v>
       </c>
       <c r="O37" t="n">
-        <v>1890.412573099711</v>
+        <v>2051.795280295118</v>
       </c>
       <c r="P37" t="n">
-        <v>2296.916452341487</v>
+        <v>2145.542954963586</v>
       </c>
       <c r="Q37" t="n">
-        <v>2352.789469050064</v>
+        <v>2352.789469050062</v>
       </c>
       <c r="R37" t="n">
-        <v>2349.715383373281</v>
+        <v>2349.71538337328</v>
       </c>
       <c r="S37" t="n">
-        <v>2196.62036813631</v>
+        <v>2196.620368136308</v>
       </c>
       <c r="T37" t="n">
-        <v>1957.458806045376</v>
+        <v>1957.458806045375</v>
       </c>
       <c r="U37" t="n">
-        <v>1677.327690979934</v>
+        <v>1677.327690979932</v>
       </c>
       <c r="V37" t="n">
-        <v>1395.616223587963</v>
+        <v>1395.616223587961</v>
       </c>
       <c r="W37" t="n">
-        <v>1120.763819760476</v>
+        <v>1120.763819760474</v>
       </c>
       <c r="X37" t="n">
-        <v>878.1999232062807</v>
+        <v>878.1999232062789</v>
       </c>
       <c r="Y37" t="n">
-        <v>651.8571548960227</v>
+        <v>651.8571548960209</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1525.735996446638</v>
+        <v>1878.245819754431</v>
       </c>
       <c r="C38" t="n">
-        <v>1525.735996446638</v>
+        <v>1451.345089767731</v>
       </c>
       <c r="D38" t="n">
-        <v>1525.735996446638</v>
+        <v>1028.052468952731</v>
       </c>
       <c r="E38" t="n">
-        <v>1149.88382583953</v>
+        <v>602.0755291005888</v>
       </c>
       <c r="F38" t="n">
-        <v>724.7596440289299</v>
+        <v>176.951347289989</v>
       </c>
       <c r="G38" t="n">
-        <v>322.6003735711051</v>
+        <v>47.05578938100126</v>
       </c>
       <c r="H38" t="n">
-        <v>47.05578938100128</v>
+        <v>47.05578938100126</v>
       </c>
       <c r="I38" t="n">
         <v>95.21747017774624</v>
       </c>
       <c r="J38" t="n">
-        <v>247.4171859015157</v>
+        <v>247.4171859015159</v>
       </c>
       <c r="K38" t="n">
-        <v>483.7701152802294</v>
+        <v>483.7701152802297</v>
       </c>
       <c r="L38" t="n">
-        <v>782.9833602320971</v>
+        <v>782.9833602320972</v>
       </c>
       <c r="M38" t="n">
         <v>1121.062031045853</v>
@@ -7189,37 +7189,37 @@
         <v>1465.360912065305</v>
       </c>
       <c r="O38" t="n">
-        <v>1788.305602292445</v>
+        <v>1788.305602292444</v>
       </c>
       <c r="P38" t="n">
         <v>2058.325011172256</v>
       </c>
       <c r="Q38" t="n">
-        <v>2253.270270684834</v>
+        <v>2253.270270684833</v>
       </c>
       <c r="R38" t="n">
-        <v>2352.789469050064</v>
+        <v>2352.789469050063</v>
       </c>
       <c r="S38" t="n">
-        <v>2352.789469050064</v>
+        <v>2298.094184045961</v>
       </c>
       <c r="T38" t="n">
-        <v>2141.405937367758</v>
+        <v>2298.094184045961</v>
       </c>
       <c r="U38" t="n">
-        <v>1883.225411320388</v>
+        <v>2298.094184045961</v>
       </c>
       <c r="V38" t="n">
-        <v>1525.735996446638</v>
+        <v>2298.094184045961</v>
       </c>
       <c r="W38" t="n">
-        <v>1525.735996446638</v>
+        <v>2298.094184045961</v>
       </c>
       <c r="X38" t="n">
-        <v>1525.735996446638</v>
+        <v>2298.094184045961</v>
       </c>
       <c r="Y38" t="n">
-        <v>1525.735996446638</v>
+        <v>2298.094184045961</v>
       </c>
     </row>
     <row r="39">
@@ -7247,34 +7247,34 @@
         <v>89.16796193353963</v>
       </c>
       <c r="H39" t="n">
-        <v>47.05578938100128</v>
+        <v>47.05578938100126</v>
       </c>
       <c r="I39" t="n">
-        <v>70.40125002648158</v>
+        <v>75.89868998526053</v>
       </c>
       <c r="J39" t="n">
-        <v>268.9453981522966</v>
+        <v>163.4898978673909</v>
       </c>
       <c r="K39" t="n">
-        <v>431.3528827629846</v>
+        <v>325.8973824780788</v>
       </c>
       <c r="L39" t="n">
-        <v>657.2572010882112</v>
+        <v>551.8017008033055</v>
       </c>
       <c r="M39" t="n">
-        <v>924.0223764334169</v>
+        <v>818.566876148511</v>
       </c>
       <c r="N39" t="n">
-        <v>1200.189436984266</v>
+        <v>1094.73393669936</v>
       </c>
       <c r="O39" t="n">
-        <v>1449.217627053832</v>
+        <v>1343.762126768926</v>
       </c>
       <c r="P39" t="n">
-        <v>1645.94308103318</v>
+        <v>1540.487580748274</v>
       </c>
       <c r="Q39" t="n">
-        <v>1769.336967796943</v>
+        <v>1663.881467512037</v>
       </c>
       <c r="R39" t="n">
         <v>1816.872151439045</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1091.161282409069</v>
+        <v>985.9665501301222</v>
       </c>
       <c r="C40" t="n">
-        <v>919.1887192879851</v>
+        <v>813.9939870090382</v>
       </c>
       <c r="D40" t="n">
-        <v>755.8719464147558</v>
+        <v>650.6772141358089</v>
       </c>
       <c r="E40" t="n">
-        <v>589.6637405676094</v>
+        <v>484.4690082886624</v>
       </c>
       <c r="F40" t="n">
-        <v>417.8019663421697</v>
+        <v>312.6072340632228</v>
       </c>
       <c r="G40" t="n">
-        <v>252.522776264377</v>
+        <v>147.32804398543</v>
       </c>
       <c r="H40" t="n">
-        <v>117.419857555801</v>
+        <v>47.05578938100126</v>
       </c>
       <c r="I40" t="n">
-        <v>47.05578938100128</v>
+        <v>47.05578938100126</v>
       </c>
       <c r="J40" t="n">
-        <v>94.37875316279181</v>
+        <v>172.3004698110126</v>
       </c>
       <c r="K40" t="n">
-        <v>432.2459250502293</v>
+        <v>497.0112995416734</v>
       </c>
       <c r="L40" t="n">
-        <v>929.4115639445633</v>
+        <v>994.1769384360075</v>
       </c>
       <c r="M40" t="n">
-        <v>1470.818659170122</v>
+        <v>1122.048553198744</v>
       </c>
       <c r="N40" t="n">
-        <v>1596.92662070063</v>
+        <v>1248.156514729252</v>
       </c>
       <c r="O40" t="n">
-        <v>1890.412573099711</v>
+        <v>1739.039075721811</v>
       </c>
       <c r="P40" t="n">
-        <v>2296.916452341487</v>
+        <v>2145.542954963587</v>
       </c>
       <c r="Q40" t="n">
-        <v>2352.789469050064</v>
+        <v>2352.789469050063</v>
       </c>
       <c r="R40" t="n">
-        <v>2349.715383373281</v>
+        <v>2349.71538337328</v>
       </c>
       <c r="S40" t="n">
-        <v>2196.62036813631</v>
+        <v>2196.620368136309</v>
       </c>
       <c r="T40" t="n">
-        <v>2196.62036813631</v>
+        <v>1957.458806045375</v>
       </c>
       <c r="U40" t="n">
-        <v>2196.62036813631</v>
+        <v>1677.327690979933</v>
       </c>
       <c r="V40" t="n">
-        <v>1914.908900744339</v>
+        <v>1677.327690979933</v>
       </c>
       <c r="W40" t="n">
-        <v>1640.056496916852</v>
+        <v>1402.475287152446</v>
       </c>
       <c r="X40" t="n">
-        <v>1507.670019431393</v>
+        <v>1402.475287152446</v>
       </c>
       <c r="Y40" t="n">
-        <v>1281.327251121135</v>
+        <v>1176.132518842188</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1748.350261845443</v>
+        <v>1151.66037401563</v>
       </c>
       <c r="C41" t="n">
-        <v>1321.449531858743</v>
+        <v>724.7596440289299</v>
       </c>
       <c r="D41" t="n">
-        <v>898.1569110437435</v>
+        <v>724.7596440289299</v>
       </c>
       <c r="E41" t="n">
-        <v>472.1799711916011</v>
+        <v>724.7596440289299</v>
       </c>
       <c r="F41" t="n">
-        <v>47.05578938100127</v>
+        <v>724.7596440289299</v>
       </c>
       <c r="G41" t="n">
-        <v>47.05578938100127</v>
+        <v>322.6003735711051</v>
       </c>
       <c r="H41" t="n">
-        <v>47.05578938100127</v>
+        <v>47.05578938100126</v>
       </c>
       <c r="I41" t="n">
         <v>95.21747017774589</v>
@@ -7414,19 +7414,19 @@
         <v>247.4171859015154</v>
       </c>
       <c r="K41" t="n">
-        <v>483.7701152802292</v>
+        <v>483.7701152802291</v>
       </c>
       <c r="L41" t="n">
-        <v>782.9833602320966</v>
+        <v>782.9833602320964</v>
       </c>
       <c r="M41" t="n">
         <v>1121.062031045853</v>
       </c>
       <c r="N41" t="n">
-        <v>1465.360912065305</v>
+        <v>1465.360912065304</v>
       </c>
       <c r="O41" t="n">
-        <v>1788.305602292445</v>
+        <v>1788.305602292444</v>
       </c>
       <c r="P41" t="n">
         <v>2058.325011172256</v>
@@ -7441,22 +7441,22 @@
         <v>2352.789469050063</v>
       </c>
       <c r="T41" t="n">
-        <v>2352.789469050063</v>
+        <v>2172.667584981859</v>
       </c>
       <c r="U41" t="n">
-        <v>2352.789469050063</v>
+        <v>1914.48705893449</v>
       </c>
       <c r="V41" t="n">
-        <v>2352.789469050063</v>
+        <v>1556.997644060739</v>
       </c>
       <c r="W41" t="n">
-        <v>1956.39811935041</v>
+        <v>1556.997644060739</v>
       </c>
       <c r="X41" t="n">
-        <v>1748.350261845443</v>
+        <v>1556.997644060739</v>
       </c>
       <c r="Y41" t="n">
-        <v>1748.350261845443</v>
+        <v>1151.66037401563</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>89.16796193353963</v>
       </c>
       <c r="H42" t="n">
-        <v>47.05578938100127</v>
+        <v>47.05578938100126</v>
       </c>
       <c r="I42" t="n">
-        <v>93.85855587089341</v>
+        <v>75.89868998526053</v>
       </c>
       <c r="J42" t="n">
-        <v>181.4497637530238</v>
+        <v>163.4898978673909</v>
       </c>
       <c r="K42" t="n">
-        <v>343.8572483637118</v>
+        <v>325.8973824780788</v>
       </c>
       <c r="L42" t="n">
-        <v>569.7615666889385</v>
+        <v>551.8017008033055</v>
       </c>
       <c r="M42" t="n">
-        <v>836.5267420341441</v>
+        <v>818.566876148511</v>
       </c>
       <c r="N42" t="n">
-        <v>1112.693802584993</v>
+        <v>1094.73393669936</v>
       </c>
       <c r="O42" t="n">
-        <v>1361.721992654559</v>
+        <v>1343.762126768926</v>
       </c>
       <c r="P42" t="n">
-        <v>1558.447446633907</v>
+        <v>1540.487580748274</v>
       </c>
       <c r="Q42" t="n">
-        <v>1769.336967796943</v>
+        <v>1663.881467512037</v>
       </c>
       <c r="R42" t="n">
         <v>1816.872151439045</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1020.797214234269</v>
+        <v>808.0262558097756</v>
       </c>
       <c r="C43" t="n">
-        <v>848.8246511131854</v>
+        <v>636.0536926886916</v>
       </c>
       <c r="D43" t="n">
-        <v>685.5078782399561</v>
+        <v>472.7369198154623</v>
       </c>
       <c r="E43" t="n">
-        <v>519.2996723928096</v>
+        <v>306.5287139683159</v>
       </c>
       <c r="F43" t="n">
-        <v>347.43789816737</v>
+        <v>212.334979458794</v>
       </c>
       <c r="G43" t="n">
-        <v>182.1587080895772</v>
+        <v>47.05578938100126</v>
       </c>
       <c r="H43" t="n">
-        <v>47.05578938100127</v>
+        <v>47.05578938100126</v>
       </c>
       <c r="I43" t="n">
-        <v>47.05578938100127</v>
+        <v>47.05578938100126</v>
       </c>
       <c r="J43" t="n">
-        <v>172.3004698110126</v>
+        <v>94.37875316279178</v>
       </c>
       <c r="K43" t="n">
-        <v>262.8850325844281</v>
+        <v>184.9633159362072</v>
       </c>
       <c r="L43" t="n">
-        <v>760.0506714787623</v>
+        <v>646.7382370825126</v>
       </c>
       <c r="M43" t="n">
-        <v>1301.457766704321</v>
+        <v>1188.145332308071</v>
       </c>
       <c r="N43" t="n">
-        <v>1427.565728234829</v>
+        <v>1712.286216680459</v>
       </c>
       <c r="O43" t="n">
-        <v>1739.039075721811</v>
+        <v>2203.168777673018</v>
       </c>
       <c r="P43" t="n">
-        <v>2145.542954963588</v>
+        <v>2296.916452341487</v>
       </c>
       <c r="Q43" t="n">
         <v>2352.789469050063</v>
       </c>
       <c r="R43" t="n">
-        <v>2349.715383373281</v>
+        <v>2352.789469050063</v>
       </c>
       <c r="S43" t="n">
-        <v>2196.620368136309</v>
+        <v>2352.789469050063</v>
       </c>
       <c r="T43" t="n">
-        <v>1957.458806045376</v>
+        <v>2113.627906959129</v>
       </c>
       <c r="U43" t="n">
-        <v>1677.327690979933</v>
+        <v>1833.496791893687</v>
       </c>
       <c r="V43" t="n">
-        <v>1395.616223587962</v>
+        <v>1551.785324501715</v>
       </c>
       <c r="W43" t="n">
-        <v>1120.763819760475</v>
+        <v>1276.932920674228</v>
       </c>
       <c r="X43" t="n">
-        <v>1020.797214234269</v>
+        <v>1034.369024120034</v>
       </c>
       <c r="Y43" t="n">
-        <v>1020.797214234269</v>
+        <v>808.0262558097756</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>896.3253500481435</v>
+        <v>1466.525820922178</v>
       </c>
       <c r="C44" t="n">
-        <v>896.3253500481435</v>
+        <v>1039.625090935478</v>
       </c>
       <c r="D44" t="n">
-        <v>473.0327292331437</v>
+        <v>616.3324701204785</v>
       </c>
       <c r="E44" t="n">
-        <v>47.05578938100127</v>
+        <v>190.3555302683361</v>
       </c>
       <c r="F44" t="n">
-        <v>47.05578938100127</v>
+        <v>190.3555302683361</v>
       </c>
       <c r="G44" t="n">
-        <v>47.05578938100127</v>
+        <v>47.05578938100126</v>
       </c>
       <c r="H44" t="n">
-        <v>47.05578938100127</v>
+        <v>47.05578938100126</v>
       </c>
       <c r="I44" t="n">
-        <v>95.21747017774652</v>
+        <v>95.21747017774578</v>
       </c>
       <c r="J44" t="n">
-        <v>247.417185901516</v>
+        <v>247.4171859015153</v>
       </c>
       <c r="K44" t="n">
-        <v>483.7701152802298</v>
+        <v>483.7701152802291</v>
       </c>
       <c r="L44" t="n">
-        <v>782.9833602320972</v>
+        <v>782.9833602320965</v>
       </c>
       <c r="M44" t="n">
         <v>1121.062031045853</v>
       </c>
       <c r="N44" t="n">
-        <v>1465.360912065305</v>
+        <v>1465.360912065304</v>
       </c>
       <c r="O44" t="n">
-        <v>1788.305602292445</v>
+        <v>1788.305602292444</v>
       </c>
       <c r="P44" t="n">
         <v>2058.325011172256</v>
@@ -7687,13 +7687,13 @@
         <v>2298.094184045961</v>
       </c>
       <c r="W44" t="n">
-        <v>1901.702834346308</v>
+        <v>2298.094184045961</v>
       </c>
       <c r="X44" t="n">
-        <v>1721.510984384783</v>
+        <v>1886.374185213708</v>
       </c>
       <c r="Y44" t="n">
-        <v>1316.173714339674</v>
+        <v>1886.374185213708</v>
       </c>
     </row>
     <row r="45">
@@ -7721,31 +7721,31 @@
         <v>89.16796193353963</v>
       </c>
       <c r="H45" t="n">
-        <v>47.05578938100127</v>
+        <v>47.05578938100126</v>
       </c>
       <c r="I45" t="n">
-        <v>70.40125002648156</v>
+        <v>70.40125002648155</v>
       </c>
       <c r="J45" t="n">
-        <v>157.992457908612</v>
+        <v>157.9924579086119</v>
       </c>
       <c r="K45" t="n">
-        <v>431.3528827629846</v>
+        <v>320.3999425192999</v>
       </c>
       <c r="L45" t="n">
-        <v>657.2572010882112</v>
+        <v>546.3042608445265</v>
       </c>
       <c r="M45" t="n">
-        <v>924.0223764334169</v>
+        <v>813.0694361897321</v>
       </c>
       <c r="N45" t="n">
-        <v>1200.189436984266</v>
+        <v>1089.236496740581</v>
       </c>
       <c r="O45" t="n">
-        <v>1449.217627053832</v>
+        <v>1338.264686810147</v>
       </c>
       <c r="P45" t="n">
-        <v>1645.94308103318</v>
+        <v>1534.990140789495</v>
       </c>
       <c r="Q45" t="n">
         <v>1769.336967796943</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>848.8246511131854</v>
+        <v>1026.607854318152</v>
       </c>
       <c r="C46" t="n">
-        <v>848.8246511131854</v>
+        <v>854.6352911970685</v>
       </c>
       <c r="D46" t="n">
-        <v>685.5078782399561</v>
+        <v>755.8719464147558</v>
       </c>
       <c r="E46" t="n">
-        <v>519.2996723928096</v>
+        <v>589.6637405676094</v>
       </c>
       <c r="F46" t="n">
-        <v>347.43789816737</v>
+        <v>417.8019663421697</v>
       </c>
       <c r="G46" t="n">
-        <v>182.1587080895772</v>
+        <v>252.522776264377</v>
       </c>
       <c r="H46" t="n">
-        <v>47.05578938100127</v>
+        <v>117.419857555801</v>
       </c>
       <c r="I46" t="n">
-        <v>47.05578938100127</v>
+        <v>47.05578938100126</v>
       </c>
       <c r="J46" t="n">
-        <v>94.3787531627918</v>
+        <v>94.37875316279178</v>
       </c>
       <c r="K46" t="n">
-        <v>432.2459250502293</v>
+        <v>184.9633159362072</v>
       </c>
       <c r="L46" t="n">
-        <v>929.4115639445633</v>
+        <v>682.1289548305413</v>
       </c>
       <c r="M46" t="n">
-        <v>1057.2831787073</v>
+        <v>1223.5360500561</v>
       </c>
       <c r="N46" t="n">
-        <v>1581.424063079688</v>
+        <v>1747.676934428488</v>
       </c>
       <c r="O46" t="n">
-        <v>2072.306624072246</v>
+        <v>2203.168777673018</v>
       </c>
       <c r="P46" t="n">
-        <v>2166.054298740715</v>
+        <v>2296.916452341487</v>
       </c>
       <c r="Q46" t="n">
         <v>2352.789469050063</v>
       </c>
       <c r="R46" t="n">
-        <v>2349.715383373281</v>
+        <v>2352.789469050063</v>
       </c>
       <c r="S46" t="n">
-        <v>2196.620368136309</v>
+        <v>2199.694453813092</v>
       </c>
       <c r="T46" t="n">
-        <v>1957.458806045376</v>
+        <v>1960.532891722158</v>
       </c>
       <c r="U46" t="n">
-        <v>1957.458806045376</v>
+        <v>1960.532891722158</v>
       </c>
       <c r="V46" t="n">
-        <v>1675.747338653405</v>
+        <v>1960.532891722158</v>
       </c>
       <c r="W46" t="n">
-        <v>1400.894934825918</v>
+        <v>1685.680487894671</v>
       </c>
       <c r="X46" t="n">
-        <v>1158.331038271723</v>
+        <v>1443.116591340476</v>
       </c>
       <c r="Y46" t="n">
-        <v>931.988269961465</v>
+        <v>1216.773823030218</v>
       </c>
     </row>
   </sheetData>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>70.37539003541804</v>
       </c>
       <c r="L12" t="n">
-        <v>275.0289943327833</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>220.6143740853703</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,25 +8847,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
         <v>360.0219516362448</v>
       </c>
       <c r="M13" t="n">
-        <v>354.4082905479649</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>355.4735849779359</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>132.770105401673</v>
+        <v>366.2873004017981</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>147.8754625841162</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>176.8960973939083</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.37539003541895</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9090,22 +9090,22 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>152.4238292424252</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>354.9948916164229</v>
+        <v>355.473584977936</v>
       </c>
       <c r="O16" t="n">
-        <v>366.2873004017981</v>
+        <v>366.2873004017982</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>39.01535248059697</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>326.4130602513781</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>7.360890261673177</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>358.0675224703015</v>
       </c>
       <c r="R18" t="n">
         <v>106.5207073584907</v>
@@ -9324,25 +9324,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>249.3017198849736</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>354.4082905479648</v>
       </c>
       <c r="N19" t="n">
         <v>355.4735849779358</v>
       </c>
       <c r="O19" t="n">
-        <v>366.2873004017981</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>164.3028390962583</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9491,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>70.37539003541789</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.37539003541828</v>
       </c>
       <c r="R21" t="n">
         <v>106.5207073584907</v>
@@ -9561,19 +9561,19 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>360.0219516362448</v>
+        <v>360.0219516362447</v>
       </c>
       <c r="M22" t="n">
-        <v>354.4082905479649</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>172.3283322247527</v>
+        <v>276.9562095262305</v>
       </c>
       <c r="P22" t="n">
         <v>315.9153581548562</v>
@@ -9716,7 +9716,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>88.37942868613415</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>88.37942868613392</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9801,22 +9801,22 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
-        <v>380.1908016072373</v>
+        <v>15.95338392009421</v>
       </c>
       <c r="M25" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O25" t="n">
-        <v>266.4310164211248</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>112.0736770138229</v>
       </c>
       <c r="R27" t="n">
-        <v>88.37942868613392</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10038,7 +10038,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>344.4426018617528</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
         <v>417.7126065281028</v>
@@ -10047,7 +10047,7 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
-        <v>381.5174992961649</v>
+        <v>345.7692995506815</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>88.37942868613396</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>112.0736770138229</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10269,25 +10269,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>330.7064598735057</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
-        <v>315.9153581548562</v>
+        <v>191.5400792578151</v>
       </c>
       <c r="Q31" t="n">
         <v>152.9025226039384</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>5.552969655331886</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>106.5207073584907</v>
+        <v>88.37942868613439</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10512,10 +10512,10 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>380.1908016072373</v>
+        <v>344.4426018617538</v>
       </c>
       <c r="M34" t="n">
-        <v>66.04904862776328</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N34" t="n">
         <v>402.0534574160406</v>
@@ -10524,7 +10524,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P34" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>112.0736770138228</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>88.37942868613439</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464869</v>
+        <v>213.4027350666176</v>
       </c>
       <c r="L37" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N37" t="n">
-        <v>139.6132881021449</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>5.552969655332301</v>
       </c>
       <c r="J39" t="n">
-        <v>112.0736770138228</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>249.7804132464869</v>
+        <v>236.4911787446923</v>
       </c>
       <c r="L40" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>182.1269855653796</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P40" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>5.552969655332301</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.37942868613388</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>380.1908016072373</v>
+        <v>344.4426018617538</v>
       </c>
       <c r="M43" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>200.2960715127547</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>112.0736770138228</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>112.0736770138229</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -11457,25 +11457,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N46" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
-        <v>381.5174992961649</v>
+        <v>345.7692995506815</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>132.1839935361329</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
@@ -23314,19 +23314,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>105.9882529316637</v>
       </c>
       <c r="W11" t="n">
-        <v>334.2061267570792</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23421,7 +23421,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
@@ -23430,7 +23430,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>135.4602252892499</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>55.70126592764396</v>
       </c>
       <c r="U13" t="n">
-        <v>125.2499888911887</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23497,22 +23497,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>242.0179504743147</v>
       </c>
       <c r="H14" t="n">
-        <v>130.5694887097208</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23554,16 +23554,16 @@
         <v>255.632988972596</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I16" t="n">
         <v>75.43872475250879</v>
@@ -23703,25 +23703,25 @@
         <v>11.68284247578064</v>
       </c>
       <c r="S16" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>0.2350691948501549</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>185.2964825592911</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>277.176001558223</v>
+        <v>241.5444308974636</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U17" t="n">
         <v>255.632988972596</v>
@@ -23797,10 +23797,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>98.55629171299012</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
@@ -23904,10 +23904,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I19" t="n">
         <v>75.43872475250879</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>128.9073711041198</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3402845023203</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>147.1884719598914</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23974,16 +23974,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>177.6350202228764</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>63.90941067458683</v>
+        <v>63.90941067458684</v>
       </c>
       <c r="T20" t="n">
-        <v>211.1448086517629</v>
+        <v>129.104969721941</v>
       </c>
       <c r="U20" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>151.274816981453</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>163.8185422817731</v>
@@ -24147,7 +24147,7 @@
         <v>135.4602252892499</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>11.68284247578064</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>154.9126128011615</v>
+        <v>16.60847366301073</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3402845023203</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>160.0524500830981</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>398.1376777532465</v>
+        <v>259.3882204291726</v>
       </c>
       <c r="H23" t="n">
         <v>272.7891383482028</v>
@@ -24265,16 +24265,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>91.59055628262907</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>163.6263981770148</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>133.7518895214902</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>69.66042749305176</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>3.043344820014475</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>21.81131995179192</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>224.8578643599713</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24493,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>20.9481004395297</v>
+        <v>54.14833215406099</v>
       </c>
       <c r="T26" t="n">
         <v>209.2696963654831</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.5987207868959</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>46.44923079972261</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.6263981770148</v>
+        <v>90.49000449513312</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>133.7518895214902</v>
       </c>
       <c r="I28" t="n">
         <v>69.66042749305176</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>3.043344820014475</v>
+        <v>3.043344820014482</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24682,10 +24682,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>382.2790539098325</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24736,10 +24736,10 @@
         <v>209.2696963654831</v>
       </c>
       <c r="U29" t="n">
-        <v>255.5987207868959</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
         <v>392.4274362026566</v>
@@ -24748,7 +24748,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>40.18733389892469</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>82.95017876810419</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.6263981770148</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>133.7518895214902</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>69.66042749305176</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>3.043344820014475</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>234.5499308470313</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -24922,19 +24922,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>272.7891383482028</v>
+        <v>126.6803331229366</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>54.14833215406097</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>209.2696963654831</v>
       </c>
       <c r="U32" t="n">
-        <v>15.43918385481155</v>
+        <v>255.5987207868959</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25086,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>35.88105221203327</v>
       </c>
       <c r="G34" t="n">
         <v>163.6263981770148</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>151.5640650846019</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>119.153003112788</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>303.3730824553613</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>398.1376777532465</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>272.7891383482028</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>54.14833215406097</v>
+        <v>54.14833215406099</v>
       </c>
       <c r="T35" t="n">
         <v>209.2696963654831</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>72.85378630293769</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
@@ -25222,7 +25222,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>49.49257561973593</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.1135024198605</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>163.6263981770148</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>133.7518895214902</v>
       </c>
       <c r="I37" t="n">
-        <v>69.66042749305176</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>49.62352155258407</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>269.5410754233486</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>272.7891383482028</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>54.14833215406097</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.2696963654831</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.5987207868959</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>34.48235746310574</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>69.66042749305176</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,19 +25602,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>236.7699464700243</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3298039147881</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>109.0756448780486</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25633,19 +25633,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>398.1376777532465</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>272.7891383482028</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>54.14833215406097</v>
+        <v>54.14833215406099</v>
       </c>
       <c r="T41" t="n">
-        <v>209.2696963654831</v>
+        <v>30.94903113796153</v>
       </c>
       <c r="U41" t="n">
-        <v>255.5987207868959</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>201.6354199140127</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25797,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>76.89135931875859</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>133.7518895214902</v>
       </c>
       <c r="I43" t="n">
         <v>69.66042749305176</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>3.043344820014482</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>151.5640650846019</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>141.1713181177092</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>398.1376777532465</v>
+        <v>256.270934274785</v>
       </c>
       <c r="H44" t="n">
         <v>272.7891383482028</v>
@@ -25927,13 +25927,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>229.2128673820203</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>105.9323263651482</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>63.90789381000749</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>69.66042749305176</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>3.043344820014482</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>277.3298039147881</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>359491.1894502503</v>
+        <v>359491.1894502502</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>359491.1894502502</v>
+        <v>359491.1894502503</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>359491.1894502502</v>
+        <v>359491.1894502501</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>417654.9459306113</v>
+        <v>417654.9459306112</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>417654.9459306113</v>
+        <v>417654.9459306112</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>417654.9459306114</v>
+        <v>417654.9459306111</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>417654.9459306113</v>
+        <v>417654.9459306112</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>417654.9459306113</v>
+        <v>417654.9459306112</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>372950.1229834998</v>
+        <v>372950.1229834997</v>
       </c>
       <c r="C2" t="n">
         <v>372951.0023362784</v>
@@ -26322,37 +26322,37 @@
         <v>372951.605336706</v>
       </c>
       <c r="E2" t="n">
+        <v>199900.0674504388</v>
+      </c>
+      <c r="F2" t="n">
         <v>199900.0674504389</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>199900.0674504388</v>
       </c>
-      <c r="G2" t="n">
-        <v>199900.0674504389</v>
-      </c>
       <c r="H2" t="n">
-        <v>199900.0674504389</v>
+        <v>199900.0674504388</v>
       </c>
       <c r="I2" t="n">
-        <v>236286.2103649161</v>
+        <v>236286.210364916</v>
       </c>
       <c r="J2" t="n">
         <v>236286.2103649159</v>
       </c>
       <c r="K2" t="n">
-        <v>236286.2103649161</v>
+        <v>236286.210364916</v>
       </c>
       <c r="L2" t="n">
         <v>236286.210364916</v>
       </c>
       <c r="M2" t="n">
-        <v>236286.2103649161</v>
+        <v>236286.210364916</v>
       </c>
       <c r="N2" t="n">
         <v>236286.2103649161</v>
       </c>
       <c r="O2" t="n">
-        <v>236286.210364916</v>
+        <v>236286.2103649161</v>
       </c>
       <c r="P2" t="n">
         <v>236286.210364916</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36763.52824278933</v>
+        <v>36763.52824278935</v>
       </c>
       <c r="C3" t="n">
-        <v>3849.713455507073</v>
+        <v>3849.713455507067</v>
       </c>
       <c r="D3" t="n">
-        <v>2482.778886659007</v>
+        <v>2482.778886659001</v>
       </c>
       <c r="E3" t="n">
-        <v>444676.8038203842</v>
+        <v>444676.8038203841</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>311677.7616960323</v>
+        <v>311677.7616960322</v>
       </c>
       <c r="C4" t="n">
         <v>310603.449827479</v>
@@ -26426,13 +26426,13 @@
         <v>309895.2308802616</v>
       </c>
       <c r="E4" t="n">
-        <v>21591.97926578065</v>
+        <v>21591.97926578066</v>
       </c>
       <c r="F4" t="n">
+        <v>21591.97926578068</v>
+      </c>
+      <c r="G4" t="n">
         <v>21591.97926578066</v>
-      </c>
-      <c r="G4" t="n">
-        <v>21591.97926578067</v>
       </c>
       <c r="H4" t="n">
         <v>21591.97926578066</v>
@@ -26441,7 +26441,7 @@
         <v>18261.60215438312</v>
       </c>
       <c r="J4" t="n">
-        <v>18261.6021543831</v>
+        <v>18261.60215438312</v>
       </c>
       <c r="K4" t="n">
         <v>18261.60215438312</v>
@@ -26450,13 +26450,13 @@
         <v>18261.60215438312</v>
       </c>
       <c r="M4" t="n">
-        <v>18261.60215438312</v>
+        <v>18261.60215438311</v>
       </c>
       <c r="N4" t="n">
         <v>18261.60215438312</v>
       </c>
       <c r="O4" t="n">
-        <v>18261.60215438311</v>
+        <v>18261.60215438312</v>
       </c>
       <c r="P4" t="n">
         <v>18261.60215438312</v>
@@ -26490,28 +26490,28 @@
         <v>36949.30081304155</v>
       </c>
       <c r="I5" t="n">
-        <v>47464.6620730927</v>
+        <v>47464.66207309269</v>
       </c>
       <c r="J5" t="n">
         <v>47464.66207309268</v>
       </c>
       <c r="K5" t="n">
-        <v>47464.6620730927</v>
+        <v>47464.66207309268</v>
       </c>
       <c r="L5" t="n">
-        <v>47464.6620730927</v>
+        <v>47464.66207309268</v>
       </c>
       <c r="M5" t="n">
-        <v>47464.6620730927</v>
+        <v>47464.66207309267</v>
       </c>
       <c r="N5" t="n">
-        <v>47464.6620730927</v>
+        <v>47464.66207309268</v>
       </c>
       <c r="O5" t="n">
-        <v>47464.6620730927</v>
+        <v>47464.66207309268</v>
       </c>
       <c r="P5" t="n">
-        <v>47464.6620730927</v>
+        <v>47464.66207309268</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9950.475240383123</v>
+        <v>-9972.158360474557</v>
       </c>
       <c r="C6" t="n">
-        <v>23946.36783279929</v>
+        <v>23924.68809483393</v>
       </c>
       <c r="D6" t="n">
-        <v>25958.92526598775</v>
+        <v>25937.24784725486</v>
       </c>
       <c r="E6" t="n">
-        <v>-303318.0164487675</v>
+        <v>-304005.2767055245</v>
       </c>
       <c r="F6" t="n">
-        <v>141358.7873716166</v>
+        <v>140671.5271148596</v>
       </c>
       <c r="G6" t="n">
-        <v>141358.7873716167</v>
+        <v>140671.5271148596</v>
       </c>
       <c r="H6" t="n">
-        <v>141358.7873716168</v>
+        <v>140671.5271148596</v>
       </c>
       <c r="I6" t="n">
-        <v>54520.9503936176</v>
+        <v>53973.63684037772</v>
       </c>
       <c r="J6" t="n">
-        <v>170559.9461374402</v>
+        <v>170012.6325842003</v>
       </c>
       <c r="K6" t="n">
-        <v>170559.9461374402</v>
+        <v>170012.6325842004</v>
       </c>
       <c r="L6" t="n">
-        <v>170559.9461374402</v>
+        <v>170012.6325842004</v>
       </c>
       <c r="M6" t="n">
-        <v>57557.8749949444</v>
+        <v>57010.56144170453</v>
       </c>
       <c r="N6" t="n">
-        <v>170559.9461374402</v>
+        <v>170012.6325842005</v>
       </c>
       <c r="O6" t="n">
-        <v>170559.9461374402</v>
+        <v>170012.6325842005</v>
       </c>
       <c r="P6" t="n">
-        <v>170559.9461374402</v>
+        <v>170012.6325842004</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>45.27845430264449</v>
       </c>
       <c r="E3" t="n">
-        <v>430.2483758469461</v>
+        <v>430.248375846946</v>
       </c>
       <c r="F3" t="n">
-        <v>430.2483758469461</v>
+        <v>430.248375846946</v>
       </c>
       <c r="G3" t="n">
-        <v>430.2483758469461</v>
+        <v>430.248375846946</v>
       </c>
       <c r="H3" t="n">
-        <v>430.2483758469461</v>
+        <v>430.248375846946</v>
       </c>
       <c r="I3" t="n">
         <v>536.8010157583363</v>
       </c>
       <c r="J3" t="n">
-        <v>536.8010157583363</v>
+        <v>536.8010157583362</v>
       </c>
       <c r="K3" t="n">
-        <v>536.8010157583363</v>
+        <v>536.8010157583362</v>
       </c>
       <c r="L3" t="n">
-        <v>536.8010157583363</v>
+        <v>536.8010157583362</v>
       </c>
       <c r="M3" t="n">
-        <v>536.8010157583363</v>
+        <v>536.8010157583362</v>
       </c>
       <c r="N3" t="n">
-        <v>536.8010157583363</v>
+        <v>536.8010157583362</v>
       </c>
       <c r="O3" t="n">
-        <v>536.8010157583363</v>
+        <v>536.8010157583362</v>
       </c>
       <c r="P3" t="n">
-        <v>536.8010157583363</v>
+        <v>536.8010157583362</v>
       </c>
     </row>
     <row r="4">
@@ -26807,31 +26807,31 @@
         <v>453.4520759799034</v>
       </c>
       <c r="H4" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="I4" t="n">
-        <v>588.197367262516</v>
+        <v>588.1973672625157</v>
       </c>
       <c r="J4" t="n">
-        <v>588.1973672625156</v>
+        <v>588.1973672625157</v>
       </c>
       <c r="K4" t="n">
-        <v>588.197367262516</v>
+        <v>588.1973672625157</v>
       </c>
       <c r="L4" t="n">
-        <v>588.1973672625159</v>
+        <v>588.1973672625157</v>
       </c>
       <c r="M4" t="n">
-        <v>588.197367262516</v>
+        <v>588.1973672625155</v>
       </c>
       <c r="N4" t="n">
-        <v>588.197367262516</v>
+        <v>588.1973672625157</v>
       </c>
       <c r="O4" t="n">
-        <v>588.1973672625159</v>
+        <v>588.1973672625157</v>
       </c>
       <c r="P4" t="n">
-        <v>588.1973672625159</v>
+        <v>588.1973672625157</v>
       </c>
     </row>
   </sheetData>
@@ -26962,13 +26962,13 @@
         <v>38.15175619547406</v>
       </c>
       <c r="C3" t="n">
-        <v>4.227657588613987</v>
+        <v>4.22765758861398</v>
       </c>
       <c r="D3" t="n">
-        <v>2.899040518556454</v>
+        <v>2.899040518556447</v>
       </c>
       <c r="E3" t="n">
-        <v>384.9699215443016</v>
+        <v>384.9699215443015</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>106.5526399113903</v>
+        <v>106.5526399113904</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>453.4520759799036</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.7452912826125</v>
+        <v>134.7452912826124</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>453.4520759799036</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>453.4520759799036</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.729641711947521</v>
+        <v>1.72964171194752</v>
       </c>
       <c r="H11" t="n">
         <v>17.71369318248255</v>
@@ -31776,7 +31776,7 @@
         <v>308.6242947670762</v>
       </c>
       <c r="O11" t="n">
-        <v>291.4251699938981</v>
+        <v>291.425169993898</v>
       </c>
       <c r="P11" t="n">
         <v>248.7246402301936</v>
@@ -31791,7 +31791,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T11" t="n">
-        <v>7.571506594050276</v>
+        <v>7.571506594050274</v>
       </c>
       <c r="U11" t="n">
         <v>0.1383713369558016</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9254399027651293</v>
+        <v>0.9254399027651292</v>
       </c>
       <c r="H12" t="n">
-        <v>8.937801166179014</v>
+        <v>8.937801166179012</v>
       </c>
       <c r="I12" t="n">
-        <v>31.86273349432573</v>
+        <v>31.86273349432572</v>
       </c>
       <c r="J12" t="n">
-        <v>87.43377607659498</v>
+        <v>87.43377607659497</v>
       </c>
       <c r="K12" t="n">
         <v>149.4382495618586</v>
@@ -31849,7 +31849,7 @@
         <v>200.9381683613497</v>
       </c>
       <c r="M12" t="n">
-        <v>234.4853648365856</v>
+        <v>234.4853648365855</v>
       </c>
       <c r="N12" t="n">
         <v>240.6914947108307</v>
@@ -31864,7 +31864,7 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R12" t="n">
-        <v>57.45845291027709</v>
+        <v>57.45845291027708</v>
       </c>
       <c r="S12" t="n">
         <v>17.18964029916807</v>
@@ -31873,7 +31873,7 @@
         <v>3.730172239654182</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06088420412928485</v>
+        <v>0.06088420412928484</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7758577269371159</v>
+        <v>0.7758577269371157</v>
       </c>
       <c r="H13" t="n">
-        <v>6.898080517677271</v>
+        <v>6.89808051767727</v>
       </c>
       <c r="I13" t="n">
         <v>23.332157824618</v>
@@ -31922,7 +31922,7 @@
         <v>54.85314129445408</v>
       </c>
       <c r="K13" t="n">
-        <v>90.1405613659667</v>
+        <v>90.14056136596669</v>
       </c>
       <c r="L13" t="n">
         <v>115.3488842393599</v>
@@ -31937,10 +31937,10 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P13" t="n">
-        <v>93.83646544701259</v>
+        <v>93.83646544701257</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.96750475288886</v>
+        <v>64.96750475288884</v>
       </c>
       <c r="R13" t="n">
         <v>34.88538470391794</v>
@@ -31949,10 +31949,10 @@
         <v>13.521084204895</v>
       </c>
       <c r="T13" t="n">
-        <v>3.315028469640403</v>
+        <v>3.315028469640402</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04231951237838819</v>
+        <v>0.04231951237838818</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.729641711947521</v>
+        <v>1.72964171194752</v>
       </c>
       <c r="H14" t="n">
         <v>17.71369318248255</v>
@@ -32013,7 +32013,7 @@
         <v>308.6242947670762</v>
       </c>
       <c r="O14" t="n">
-        <v>291.4251699938981</v>
+        <v>291.425169993898</v>
       </c>
       <c r="P14" t="n">
         <v>248.7246402301936</v>
@@ -32028,7 +32028,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T14" t="n">
-        <v>7.571506594050276</v>
+        <v>7.571506594050274</v>
       </c>
       <c r="U14" t="n">
         <v>0.1383713369558016</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9254399027651293</v>
+        <v>0.9254399027651292</v>
       </c>
       <c r="H15" t="n">
-        <v>8.937801166179014</v>
+        <v>8.937801166179012</v>
       </c>
       <c r="I15" t="n">
-        <v>31.86273349432573</v>
+        <v>31.86273349432572</v>
       </c>
       <c r="J15" t="n">
-        <v>87.43377607659498</v>
+        <v>87.43377607659497</v>
       </c>
       <c r="K15" t="n">
         <v>149.4382495618586</v>
@@ -32086,7 +32086,7 @@
         <v>200.9381683613497</v>
       </c>
       <c r="M15" t="n">
-        <v>234.4853648365856</v>
+        <v>234.4853648365855</v>
       </c>
       <c r="N15" t="n">
         <v>240.6914947108307</v>
@@ -32101,7 +32101,7 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R15" t="n">
-        <v>57.45845291027709</v>
+        <v>57.45845291027708</v>
       </c>
       <c r="S15" t="n">
         <v>17.18964029916807</v>
@@ -32110,7 +32110,7 @@
         <v>3.730172239654182</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06088420412928485</v>
+        <v>0.06088420412928484</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7758577269371159</v>
+        <v>0.7758577269371157</v>
       </c>
       <c r="H16" t="n">
-        <v>6.898080517677271</v>
+        <v>6.89808051767727</v>
       </c>
       <c r="I16" t="n">
         <v>23.332157824618</v>
@@ -32159,7 +32159,7 @@
         <v>54.85314129445408</v>
       </c>
       <c r="K16" t="n">
-        <v>90.1405613659667</v>
+        <v>90.14056136596669</v>
       </c>
       <c r="L16" t="n">
         <v>115.3488842393599</v>
@@ -32174,10 +32174,10 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P16" t="n">
-        <v>93.83646544701259</v>
+        <v>93.83646544701257</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.96750475288886</v>
+        <v>64.96750475288884</v>
       </c>
       <c r="R16" t="n">
         <v>34.88538470391794</v>
@@ -32186,10 +32186,10 @@
         <v>13.521084204895</v>
       </c>
       <c r="T16" t="n">
-        <v>3.315028469640403</v>
+        <v>3.315028469640402</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04231951237838819</v>
+        <v>0.04231951237838818</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.729641711947521</v>
+        <v>1.72964171194752</v>
       </c>
       <c r="H17" t="n">
         <v>17.71369318248255</v>
@@ -32250,7 +32250,7 @@
         <v>308.6242947670762</v>
       </c>
       <c r="O17" t="n">
-        <v>291.4251699938981</v>
+        <v>291.425169993898</v>
       </c>
       <c r="P17" t="n">
         <v>248.7246402301936</v>
@@ -32265,7 +32265,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T17" t="n">
-        <v>7.571506594050276</v>
+        <v>7.571506594050274</v>
       </c>
       <c r="U17" t="n">
         <v>0.1383713369558016</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9254399027651293</v>
+        <v>0.9254399027651292</v>
       </c>
       <c r="H18" t="n">
-        <v>8.937801166179014</v>
+        <v>8.937801166179012</v>
       </c>
       <c r="I18" t="n">
-        <v>31.86273349432573</v>
+        <v>31.86273349432572</v>
       </c>
       <c r="J18" t="n">
-        <v>87.43377607659498</v>
+        <v>87.43377607659497</v>
       </c>
       <c r="K18" t="n">
         <v>149.4382495618586</v>
@@ -32323,7 +32323,7 @@
         <v>200.9381683613497</v>
       </c>
       <c r="M18" t="n">
-        <v>234.4853648365856</v>
+        <v>234.4853648365855</v>
       </c>
       <c r="N18" t="n">
         <v>240.6914947108307</v>
@@ -32338,7 +32338,7 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R18" t="n">
-        <v>57.45845291027709</v>
+        <v>57.45845291027708</v>
       </c>
       <c r="S18" t="n">
         <v>17.18964029916807</v>
@@ -32347,7 +32347,7 @@
         <v>3.730172239654182</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06088420412928485</v>
+        <v>0.06088420412928484</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7758577269371159</v>
+        <v>0.7758577269371157</v>
       </c>
       <c r="H19" t="n">
-        <v>6.898080517677271</v>
+        <v>6.89808051767727</v>
       </c>
       <c r="I19" t="n">
         <v>23.332157824618</v>
@@ -32396,7 +32396,7 @@
         <v>54.85314129445408</v>
       </c>
       <c r="K19" t="n">
-        <v>90.1405613659667</v>
+        <v>90.14056136596669</v>
       </c>
       <c r="L19" t="n">
         <v>115.3488842393599</v>
@@ -32411,10 +32411,10 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P19" t="n">
-        <v>93.83646544701259</v>
+        <v>93.83646544701257</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.96750475288886</v>
+        <v>64.96750475288884</v>
       </c>
       <c r="R19" t="n">
         <v>34.88538470391794</v>
@@ -32423,10 +32423,10 @@
         <v>13.521084204895</v>
       </c>
       <c r="T19" t="n">
-        <v>3.315028469640403</v>
+        <v>3.315028469640402</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04231951237838819</v>
+        <v>0.04231951237838818</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.729641711947521</v>
+        <v>1.72964171194752</v>
       </c>
       <c r="H20" t="n">
         <v>17.71369318248255</v>
       </c>
       <c r="I20" t="n">
-        <v>66.68201209985685</v>
+        <v>66.68201209985683</v>
       </c>
       <c r="J20" t="n">
         <v>146.801178249406</v>
@@ -32481,16 +32481,16 @@
         <v>272.9504344581586</v>
       </c>
       <c r="M20" t="n">
-        <v>303.7099502530053</v>
+        <v>303.7099502530052</v>
       </c>
       <c r="N20" t="n">
         <v>308.6242947670762</v>
       </c>
       <c r="O20" t="n">
-        <v>291.4251699938981</v>
+        <v>291.425169993898</v>
       </c>
       <c r="P20" t="n">
-        <v>248.7246402301936</v>
+        <v>248.7246402301935</v>
       </c>
       <c r="Q20" t="n">
         <v>186.7818464210729</v>
@@ -32502,7 +32502,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T20" t="n">
-        <v>7.571506594050276</v>
+        <v>7.571506594050273</v>
       </c>
       <c r="U20" t="n">
         <v>0.1383713369558016</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9254399027651293</v>
+        <v>0.9254399027651291</v>
       </c>
       <c r="H21" t="n">
-        <v>8.937801166179014</v>
+        <v>8.937801166179012</v>
       </c>
       <c r="I21" t="n">
-        <v>31.86273349432573</v>
+        <v>31.86273349432572</v>
       </c>
       <c r="J21" t="n">
-        <v>87.43377607659498</v>
+        <v>87.43377607659495</v>
       </c>
       <c r="K21" t="n">
         <v>149.4382495618586</v>
@@ -32560,31 +32560,31 @@
         <v>200.9381683613497</v>
       </c>
       <c r="M21" t="n">
-        <v>234.4853648365856</v>
+        <v>234.4853648365855</v>
       </c>
       <c r="N21" t="n">
         <v>240.6914947108307</v>
       </c>
       <c r="O21" t="n">
-        <v>220.1856947600876</v>
+        <v>220.1856947600875</v>
       </c>
       <c r="P21" t="n">
-        <v>176.7184319587202</v>
+        <v>176.7184319587201</v>
       </c>
       <c r="Q21" t="n">
-        <v>118.1315917985804</v>
+        <v>118.1315917985803</v>
       </c>
       <c r="R21" t="n">
-        <v>57.45845291027709</v>
+        <v>57.45845291027707</v>
       </c>
       <c r="S21" t="n">
         <v>17.18964029916807</v>
       </c>
       <c r="T21" t="n">
-        <v>3.730172239654182</v>
+        <v>3.730172239654181</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06088420412928485</v>
+        <v>0.06088420412928484</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7758577269371159</v>
+        <v>0.7758577269371156</v>
       </c>
       <c r="H22" t="n">
-        <v>6.898080517677271</v>
+        <v>6.898080517677269</v>
       </c>
       <c r="I22" t="n">
-        <v>23.332157824618</v>
+        <v>23.33215782461799</v>
       </c>
       <c r="J22" t="n">
-        <v>54.85314129445408</v>
+        <v>54.85314129445407</v>
       </c>
       <c r="K22" t="n">
-        <v>90.1405613659667</v>
+        <v>90.14056136596669</v>
       </c>
       <c r="L22" t="n">
         <v>115.3488842393599</v>
@@ -32648,10 +32648,10 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P22" t="n">
-        <v>93.83646544701259</v>
+        <v>93.83646544701256</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.96750475288886</v>
+        <v>64.96750475288884</v>
       </c>
       <c r="R22" t="n">
         <v>34.88538470391794</v>
@@ -32660,10 +32660,10 @@
         <v>13.521084204895</v>
       </c>
       <c r="T22" t="n">
-        <v>3.315028469640403</v>
+        <v>3.315028469640402</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04231951237838819</v>
+        <v>0.04231951237838817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.157994033199341</v>
+        <v>2.15799403319934</v>
       </c>
       <c r="H26" t="n">
         <v>22.10055639250275</v>
       </c>
       <c r="I26" t="n">
-        <v>83.19606496491765</v>
+        <v>83.19606496491764</v>
       </c>
       <c r="J26" t="n">
         <v>183.1570460752527</v>
@@ -32952,19 +32952,19 @@
         <v>274.5049335005808</v>
       </c>
       <c r="L26" t="n">
-        <v>340.5476433941052</v>
+        <v>340.5476433941051</v>
       </c>
       <c r="M26" t="n">
-        <v>378.924869782014</v>
+        <v>378.9248697820139</v>
       </c>
       <c r="N26" t="n">
-        <v>385.0562703288416</v>
+        <v>385.0562703288415</v>
       </c>
       <c r="O26" t="n">
-        <v>363.5977171612157</v>
+        <v>363.5977171612156</v>
       </c>
       <c r="P26" t="n">
-        <v>310.3222394666069</v>
+        <v>310.3222394666068</v>
       </c>
       <c r="Q26" t="n">
         <v>233.0390781526554</v>
@@ -32973,10 +32973,10 @@
         <v>135.5570926879582</v>
       </c>
       <c r="S26" t="n">
-        <v>49.17528903153002</v>
+        <v>49.17528903153001</v>
       </c>
       <c r="T26" t="n">
-        <v>9.446618880330117</v>
+        <v>9.446618880330115</v>
       </c>
       <c r="U26" t="n">
         <v>0.1726395226559472</v>
@@ -33019,10 +33019,10 @@
         <v>1.154628599933025</v>
       </c>
       <c r="H27" t="n">
-        <v>11.15128147830054</v>
+        <v>11.15128147830053</v>
       </c>
       <c r="I27" t="n">
-        <v>39.75366012927303</v>
+        <v>39.75366012927302</v>
       </c>
       <c r="J27" t="n">
         <v>109.0870818910408</v>
@@ -33031,10 +33031,10 @@
         <v>186.4471980865535</v>
       </c>
       <c r="L27" t="n">
-        <v>250.7012668407212</v>
+        <v>250.7012668407211</v>
       </c>
       <c r="M27" t="n">
-        <v>292.5565535882933</v>
+        <v>292.5565535882932</v>
       </c>
       <c r="N27" t="n">
         <v>300.299655032581</v>
@@ -33043,22 +33043,22 @@
         <v>274.7155160551176</v>
       </c>
       <c r="P27" t="n">
-        <v>220.4834209819477</v>
+        <v>220.4834209819476</v>
       </c>
       <c r="Q27" t="n">
         <v>147.3873279493455</v>
       </c>
       <c r="R27" t="n">
-        <v>71.68825640636804</v>
+        <v>71.68825640636803</v>
       </c>
       <c r="S27" t="n">
         <v>21.44671982770333</v>
       </c>
       <c r="T27" t="n">
-        <v>4.653963523414254</v>
+        <v>4.653963523414253</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07596240789033065</v>
+        <v>0.07596240789033064</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9680018316953605</v>
+        <v>0.9680018316953604</v>
       </c>
       <c r="H28" t="n">
-        <v>8.606416285436939</v>
+        <v>8.606416285436937</v>
       </c>
       <c r="I28" t="n">
         <v>29.11045508407503</v>
       </c>
       <c r="J28" t="n">
-        <v>68.43772950086199</v>
+        <v>68.43772950086198</v>
       </c>
       <c r="K28" t="n">
         <v>112.4642128096973</v>
@@ -33125,19 +33125,19 @@
         <v>117.0754215352279</v>
       </c>
       <c r="Q28" t="n">
-        <v>81.05695337950878</v>
+        <v>81.05695337950877</v>
       </c>
       <c r="R28" t="n">
-        <v>43.52488235968411</v>
+        <v>43.5248823596841</v>
       </c>
       <c r="S28" t="n">
         <v>16.86963192145459</v>
       </c>
       <c r="T28" t="n">
-        <v>4.136007826334721</v>
+        <v>4.13600782633472</v>
       </c>
       <c r="U28" t="n">
-        <v>0.05280009991065609</v>
+        <v>0.05280009991065608</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.157994033199341</v>
+        <v>2.15799403319934</v>
       </c>
       <c r="H29" t="n">
         <v>22.10055639250275</v>
       </c>
       <c r="I29" t="n">
-        <v>83.19606496491765</v>
+        <v>83.19606496491764</v>
       </c>
       <c r="J29" t="n">
         <v>183.1570460752527</v>
@@ -33189,19 +33189,19 @@
         <v>274.5049335005808</v>
       </c>
       <c r="L29" t="n">
-        <v>340.5476433941052</v>
+        <v>340.5476433941051</v>
       </c>
       <c r="M29" t="n">
-        <v>378.924869782014</v>
+        <v>378.9248697820139</v>
       </c>
       <c r="N29" t="n">
-        <v>385.0562703288416</v>
+        <v>385.0562703288415</v>
       </c>
       <c r="O29" t="n">
-        <v>363.5977171612157</v>
+        <v>363.5977171612156</v>
       </c>
       <c r="P29" t="n">
-        <v>310.3222394666069</v>
+        <v>310.3222394666068</v>
       </c>
       <c r="Q29" t="n">
         <v>233.0390781526554</v>
@@ -33210,10 +33210,10 @@
         <v>135.5570926879582</v>
       </c>
       <c r="S29" t="n">
-        <v>49.17528903153002</v>
+        <v>49.17528903153001</v>
       </c>
       <c r="T29" t="n">
-        <v>9.446618880330117</v>
+        <v>9.446618880330115</v>
       </c>
       <c r="U29" t="n">
         <v>0.1726395226559472</v>
@@ -33256,10 +33256,10 @@
         <v>1.154628599933025</v>
       </c>
       <c r="H30" t="n">
-        <v>11.15128147830054</v>
+        <v>11.15128147830053</v>
       </c>
       <c r="I30" t="n">
-        <v>39.75366012927303</v>
+        <v>39.75366012927302</v>
       </c>
       <c r="J30" t="n">
         <v>109.0870818910408</v>
@@ -33268,10 +33268,10 @@
         <v>186.4471980865535</v>
       </c>
       <c r="L30" t="n">
-        <v>250.7012668407212</v>
+        <v>250.7012668407211</v>
       </c>
       <c r="M30" t="n">
-        <v>292.5565535882933</v>
+        <v>292.5565535882932</v>
       </c>
       <c r="N30" t="n">
         <v>300.299655032581</v>
@@ -33280,22 +33280,22 @@
         <v>274.7155160551176</v>
       </c>
       <c r="P30" t="n">
-        <v>220.4834209819477</v>
+        <v>220.4834209819476</v>
       </c>
       <c r="Q30" t="n">
         <v>147.3873279493455</v>
       </c>
       <c r="R30" t="n">
-        <v>71.68825640636804</v>
+        <v>71.68825640636803</v>
       </c>
       <c r="S30" t="n">
         <v>21.44671982770333</v>
       </c>
       <c r="T30" t="n">
-        <v>4.653963523414254</v>
+        <v>4.653963523414253</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07596240789033065</v>
+        <v>0.07596240789033064</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9680018316953605</v>
+        <v>0.9680018316953604</v>
       </c>
       <c r="H31" t="n">
-        <v>8.606416285436939</v>
+        <v>8.606416285436937</v>
       </c>
       <c r="I31" t="n">
         <v>29.11045508407503</v>
       </c>
       <c r="J31" t="n">
-        <v>68.43772950086199</v>
+        <v>68.43772950086198</v>
       </c>
       <c r="K31" t="n">
         <v>112.4642128096973</v>
@@ -33362,19 +33362,19 @@
         <v>117.0754215352279</v>
       </c>
       <c r="Q31" t="n">
-        <v>81.05695337950878</v>
+        <v>81.05695337950877</v>
       </c>
       <c r="R31" t="n">
-        <v>43.52488235968411</v>
+        <v>43.5248823596841</v>
       </c>
       <c r="S31" t="n">
         <v>16.86963192145459</v>
       </c>
       <c r="T31" t="n">
-        <v>4.136007826334721</v>
+        <v>4.13600782633472</v>
       </c>
       <c r="U31" t="n">
-        <v>0.05280009991065609</v>
+        <v>0.05280009991065608</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.157994033199341</v>
+        <v>2.15799403319934</v>
       </c>
       <c r="H32" t="n">
         <v>22.10055639250275</v>
       </c>
       <c r="I32" t="n">
-        <v>83.19606496491765</v>
+        <v>83.19606496491764</v>
       </c>
       <c r="J32" t="n">
         <v>183.1570460752527</v>
@@ -33426,19 +33426,19 @@
         <v>274.5049335005808</v>
       </c>
       <c r="L32" t="n">
-        <v>340.5476433941052</v>
+        <v>340.5476433941051</v>
       </c>
       <c r="M32" t="n">
-        <v>378.924869782014</v>
+        <v>378.9248697820139</v>
       </c>
       <c r="N32" t="n">
-        <v>385.0562703288416</v>
+        <v>385.0562703288415</v>
       </c>
       <c r="O32" t="n">
-        <v>363.5977171612157</v>
+        <v>363.5977171612156</v>
       </c>
       <c r="P32" t="n">
-        <v>310.3222394666069</v>
+        <v>310.3222394666068</v>
       </c>
       <c r="Q32" t="n">
         <v>233.0390781526554</v>
@@ -33447,10 +33447,10 @@
         <v>135.5570926879582</v>
       </c>
       <c r="S32" t="n">
-        <v>49.17528903153002</v>
+        <v>49.17528903153001</v>
       </c>
       <c r="T32" t="n">
-        <v>9.446618880330117</v>
+        <v>9.446618880330115</v>
       </c>
       <c r="U32" t="n">
         <v>0.1726395226559472</v>
@@ -33493,10 +33493,10 @@
         <v>1.154628599933025</v>
       </c>
       <c r="H33" t="n">
-        <v>11.15128147830054</v>
+        <v>11.15128147830053</v>
       </c>
       <c r="I33" t="n">
-        <v>39.75366012927303</v>
+        <v>39.75366012927302</v>
       </c>
       <c r="J33" t="n">
         <v>109.0870818910408</v>
@@ -33505,10 +33505,10 @@
         <v>186.4471980865535</v>
       </c>
       <c r="L33" t="n">
-        <v>250.7012668407212</v>
+        <v>250.7012668407211</v>
       </c>
       <c r="M33" t="n">
-        <v>292.5565535882933</v>
+        <v>292.5565535882932</v>
       </c>
       <c r="N33" t="n">
         <v>300.299655032581</v>
@@ -33517,22 +33517,22 @@
         <v>274.7155160551176</v>
       </c>
       <c r="P33" t="n">
-        <v>220.4834209819477</v>
+        <v>220.4834209819476</v>
       </c>
       <c r="Q33" t="n">
         <v>147.3873279493455</v>
       </c>
       <c r="R33" t="n">
-        <v>71.68825640636804</v>
+        <v>71.68825640636803</v>
       </c>
       <c r="S33" t="n">
         <v>21.44671982770333</v>
       </c>
       <c r="T33" t="n">
-        <v>4.653963523414254</v>
+        <v>4.653963523414253</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07596240789033065</v>
+        <v>0.07596240789033064</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9680018316953605</v>
+        <v>0.9680018316953604</v>
       </c>
       <c r="H34" t="n">
-        <v>8.606416285436939</v>
+        <v>8.606416285436937</v>
       </c>
       <c r="I34" t="n">
         <v>29.11045508407503</v>
       </c>
       <c r="J34" t="n">
-        <v>68.43772950086199</v>
+        <v>68.43772950086198</v>
       </c>
       <c r="K34" t="n">
         <v>112.4642128096973</v>
@@ -33599,19 +33599,19 @@
         <v>117.0754215352279</v>
       </c>
       <c r="Q34" t="n">
-        <v>81.05695337950878</v>
+        <v>81.05695337950877</v>
       </c>
       <c r="R34" t="n">
-        <v>43.52488235968411</v>
+        <v>43.5248823596841</v>
       </c>
       <c r="S34" t="n">
         <v>16.86963192145459</v>
       </c>
       <c r="T34" t="n">
-        <v>4.136007826334721</v>
+        <v>4.13600782633472</v>
       </c>
       <c r="U34" t="n">
-        <v>0.05280009991065609</v>
+        <v>0.05280009991065608</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.157994033199341</v>
+        <v>2.15799403319934</v>
       </c>
       <c r="H35" t="n">
         <v>22.10055639250275</v>
       </c>
       <c r="I35" t="n">
-        <v>83.19606496491765</v>
+        <v>83.19606496491764</v>
       </c>
       <c r="J35" t="n">
         <v>183.1570460752527</v>
@@ -33663,19 +33663,19 @@
         <v>274.5049335005808</v>
       </c>
       <c r="L35" t="n">
-        <v>340.5476433941052</v>
+        <v>340.5476433941051</v>
       </c>
       <c r="M35" t="n">
-        <v>378.924869782014</v>
+        <v>378.9248697820139</v>
       </c>
       <c r="N35" t="n">
-        <v>385.0562703288416</v>
+        <v>385.0562703288415</v>
       </c>
       <c r="O35" t="n">
-        <v>363.5977171612157</v>
+        <v>363.5977171612156</v>
       </c>
       <c r="P35" t="n">
-        <v>310.3222394666069</v>
+        <v>310.3222394666068</v>
       </c>
       <c r="Q35" t="n">
         <v>233.0390781526554</v>
@@ -33684,10 +33684,10 @@
         <v>135.5570926879582</v>
       </c>
       <c r="S35" t="n">
-        <v>49.17528903153002</v>
+        <v>49.17528903153001</v>
       </c>
       <c r="T35" t="n">
-        <v>9.446618880330117</v>
+        <v>9.446618880330115</v>
       </c>
       <c r="U35" t="n">
         <v>0.1726395226559472</v>
@@ -33730,10 +33730,10 @@
         <v>1.154628599933025</v>
       </c>
       <c r="H36" t="n">
-        <v>11.15128147830054</v>
+        <v>11.15128147830053</v>
       </c>
       <c r="I36" t="n">
-        <v>39.75366012927303</v>
+        <v>39.75366012927302</v>
       </c>
       <c r="J36" t="n">
         <v>109.0870818910408</v>
@@ -33742,10 +33742,10 @@
         <v>186.4471980865535</v>
       </c>
       <c r="L36" t="n">
-        <v>250.7012668407212</v>
+        <v>250.7012668407211</v>
       </c>
       <c r="M36" t="n">
-        <v>292.5565535882933</v>
+        <v>292.5565535882932</v>
       </c>
       <c r="N36" t="n">
         <v>300.299655032581</v>
@@ -33754,22 +33754,22 @@
         <v>274.7155160551176</v>
       </c>
       <c r="P36" t="n">
-        <v>220.4834209819477</v>
+        <v>220.4834209819476</v>
       </c>
       <c r="Q36" t="n">
         <v>147.3873279493455</v>
       </c>
       <c r="R36" t="n">
-        <v>71.68825640636804</v>
+        <v>71.68825640636803</v>
       </c>
       <c r="S36" t="n">
         <v>21.44671982770333</v>
       </c>
       <c r="T36" t="n">
-        <v>4.653963523414254</v>
+        <v>4.653963523414253</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07596240789033065</v>
+        <v>0.07596240789033064</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9680018316953605</v>
+        <v>0.9680018316953604</v>
       </c>
       <c r="H37" t="n">
-        <v>8.606416285436939</v>
+        <v>8.606416285436937</v>
       </c>
       <c r="I37" t="n">
         <v>29.11045508407503</v>
       </c>
       <c r="J37" t="n">
-        <v>68.43772950086199</v>
+        <v>68.43772950086198</v>
       </c>
       <c r="K37" t="n">
         <v>112.4642128096973</v>
@@ -33836,19 +33836,19 @@
         <v>117.0754215352279</v>
       </c>
       <c r="Q37" t="n">
-        <v>81.05695337950878</v>
+        <v>81.05695337950877</v>
       </c>
       <c r="R37" t="n">
-        <v>43.52488235968411</v>
+        <v>43.5248823596841</v>
       </c>
       <c r="S37" t="n">
         <v>16.86963192145459</v>
       </c>
       <c r="T37" t="n">
-        <v>4.136007826334721</v>
+        <v>4.13600782633472</v>
       </c>
       <c r="U37" t="n">
-        <v>0.05280009991065609</v>
+        <v>0.05280009991065608</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.157994033199341</v>
+        <v>2.15799403319934</v>
       </c>
       <c r="H38" t="n">
         <v>22.10055639250275</v>
       </c>
       <c r="I38" t="n">
-        <v>83.19606496491765</v>
+        <v>83.19606496491764</v>
       </c>
       <c r="J38" t="n">
         <v>183.1570460752527</v>
@@ -33900,19 +33900,19 @@
         <v>274.5049335005808</v>
       </c>
       <c r="L38" t="n">
-        <v>340.5476433941052</v>
+        <v>340.5476433941051</v>
       </c>
       <c r="M38" t="n">
-        <v>378.924869782014</v>
+        <v>378.9248697820139</v>
       </c>
       <c r="N38" t="n">
-        <v>385.0562703288416</v>
+        <v>385.0562703288415</v>
       </c>
       <c r="O38" t="n">
-        <v>363.5977171612157</v>
+        <v>363.5977171612156</v>
       </c>
       <c r="P38" t="n">
-        <v>310.3222394666069</v>
+        <v>310.3222394666068</v>
       </c>
       <c r="Q38" t="n">
         <v>233.0390781526554</v>
@@ -33921,10 +33921,10 @@
         <v>135.5570926879582</v>
       </c>
       <c r="S38" t="n">
-        <v>49.17528903153002</v>
+        <v>49.17528903153001</v>
       </c>
       <c r="T38" t="n">
-        <v>9.446618880330117</v>
+        <v>9.446618880330115</v>
       </c>
       <c r="U38" t="n">
         <v>0.1726395226559472</v>
@@ -33967,10 +33967,10 @@
         <v>1.154628599933025</v>
       </c>
       <c r="H39" t="n">
-        <v>11.15128147830054</v>
+        <v>11.15128147830053</v>
       </c>
       <c r="I39" t="n">
-        <v>39.75366012927303</v>
+        <v>39.75366012927302</v>
       </c>
       <c r="J39" t="n">
         <v>109.0870818910408</v>
@@ -33979,10 +33979,10 @@
         <v>186.4471980865535</v>
       </c>
       <c r="L39" t="n">
-        <v>250.7012668407212</v>
+        <v>250.7012668407211</v>
       </c>
       <c r="M39" t="n">
-        <v>292.5565535882933</v>
+        <v>292.5565535882932</v>
       </c>
       <c r="N39" t="n">
         <v>300.299655032581</v>
@@ -33991,22 +33991,22 @@
         <v>274.7155160551176</v>
       </c>
       <c r="P39" t="n">
-        <v>220.4834209819477</v>
+        <v>220.4834209819476</v>
       </c>
       <c r="Q39" t="n">
         <v>147.3873279493455</v>
       </c>
       <c r="R39" t="n">
-        <v>71.68825640636804</v>
+        <v>71.68825640636803</v>
       </c>
       <c r="S39" t="n">
         <v>21.44671982770333</v>
       </c>
       <c r="T39" t="n">
-        <v>4.653963523414254</v>
+        <v>4.653963523414253</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07596240789033065</v>
+        <v>0.07596240789033064</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9680018316953605</v>
+        <v>0.9680018316953604</v>
       </c>
       <c r="H40" t="n">
-        <v>8.606416285436939</v>
+        <v>8.606416285436937</v>
       </c>
       <c r="I40" t="n">
         <v>29.11045508407503</v>
       </c>
       <c r="J40" t="n">
-        <v>68.43772950086199</v>
+        <v>68.43772950086198</v>
       </c>
       <c r="K40" t="n">
         <v>112.4642128096973</v>
@@ -34073,19 +34073,19 @@
         <v>117.0754215352279</v>
       </c>
       <c r="Q40" t="n">
-        <v>81.05695337950878</v>
+        <v>81.05695337950877</v>
       </c>
       <c r="R40" t="n">
-        <v>43.52488235968411</v>
+        <v>43.5248823596841</v>
       </c>
       <c r="S40" t="n">
         <v>16.86963192145459</v>
       </c>
       <c r="T40" t="n">
-        <v>4.136007826334721</v>
+        <v>4.13600782633472</v>
       </c>
       <c r="U40" t="n">
-        <v>0.05280009991065609</v>
+        <v>0.05280009991065608</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.157994033199341</v>
+        <v>2.15799403319934</v>
       </c>
       <c r="H41" t="n">
         <v>22.10055639250275</v>
       </c>
       <c r="I41" t="n">
-        <v>83.19606496491765</v>
+        <v>83.19606496491764</v>
       </c>
       <c r="J41" t="n">
         <v>183.1570460752527</v>
@@ -34137,19 +34137,19 @@
         <v>274.5049335005808</v>
       </c>
       <c r="L41" t="n">
-        <v>340.5476433941052</v>
+        <v>340.5476433941051</v>
       </c>
       <c r="M41" t="n">
-        <v>378.924869782014</v>
+        <v>378.9248697820139</v>
       </c>
       <c r="N41" t="n">
-        <v>385.0562703288416</v>
+        <v>385.0562703288415</v>
       </c>
       <c r="O41" t="n">
-        <v>363.5977171612157</v>
+        <v>363.5977171612156</v>
       </c>
       <c r="P41" t="n">
-        <v>310.3222394666069</v>
+        <v>310.3222394666068</v>
       </c>
       <c r="Q41" t="n">
         <v>233.0390781526554</v>
@@ -34158,10 +34158,10 @@
         <v>135.5570926879582</v>
       </c>
       <c r="S41" t="n">
-        <v>49.17528903153002</v>
+        <v>49.17528903153001</v>
       </c>
       <c r="T41" t="n">
-        <v>9.446618880330117</v>
+        <v>9.446618880330115</v>
       </c>
       <c r="U41" t="n">
         <v>0.1726395226559472</v>
@@ -34204,10 +34204,10 @@
         <v>1.154628599933025</v>
       </c>
       <c r="H42" t="n">
-        <v>11.15128147830054</v>
+        <v>11.15128147830053</v>
       </c>
       <c r="I42" t="n">
-        <v>39.75366012927303</v>
+        <v>39.75366012927302</v>
       </c>
       <c r="J42" t="n">
         <v>109.0870818910408</v>
@@ -34216,10 +34216,10 @@
         <v>186.4471980865535</v>
       </c>
       <c r="L42" t="n">
-        <v>250.7012668407212</v>
+        <v>250.7012668407211</v>
       </c>
       <c r="M42" t="n">
-        <v>292.5565535882933</v>
+        <v>292.5565535882932</v>
       </c>
       <c r="N42" t="n">
         <v>300.299655032581</v>
@@ -34228,22 +34228,22 @@
         <v>274.7155160551176</v>
       </c>
       <c r="P42" t="n">
-        <v>220.4834209819477</v>
+        <v>220.4834209819476</v>
       </c>
       <c r="Q42" t="n">
         <v>147.3873279493455</v>
       </c>
       <c r="R42" t="n">
-        <v>71.68825640636804</v>
+        <v>71.68825640636803</v>
       </c>
       <c r="S42" t="n">
         <v>21.44671982770333</v>
       </c>
       <c r="T42" t="n">
-        <v>4.653963523414254</v>
+        <v>4.653963523414253</v>
       </c>
       <c r="U42" t="n">
-        <v>0.07596240789033065</v>
+        <v>0.07596240789033064</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9680018316953605</v>
+        <v>0.9680018316953604</v>
       </c>
       <c r="H43" t="n">
-        <v>8.606416285436939</v>
+        <v>8.606416285436937</v>
       </c>
       <c r="I43" t="n">
         <v>29.11045508407503</v>
       </c>
       <c r="J43" t="n">
-        <v>68.43772950086199</v>
+        <v>68.43772950086198</v>
       </c>
       <c r="K43" t="n">
         <v>112.4642128096973</v>
@@ -34310,19 +34310,19 @@
         <v>117.0754215352279</v>
       </c>
       <c r="Q43" t="n">
-        <v>81.05695337950878</v>
+        <v>81.05695337950877</v>
       </c>
       <c r="R43" t="n">
-        <v>43.52488235968411</v>
+        <v>43.5248823596841</v>
       </c>
       <c r="S43" t="n">
         <v>16.86963192145459</v>
       </c>
       <c r="T43" t="n">
-        <v>4.136007826334721</v>
+        <v>4.13600782633472</v>
       </c>
       <c r="U43" t="n">
-        <v>0.05280009991065609</v>
+        <v>0.05280009991065608</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.157994033199341</v>
+        <v>2.15799403319934</v>
       </c>
       <c r="H44" t="n">
         <v>22.10055639250275</v>
       </c>
       <c r="I44" t="n">
-        <v>83.19606496491829</v>
+        <v>83.19606496491764</v>
       </c>
       <c r="J44" t="n">
         <v>183.1570460752527</v>
@@ -34374,19 +34374,19 @@
         <v>274.5049335005808</v>
       </c>
       <c r="L44" t="n">
-        <v>340.5476433941052</v>
+        <v>340.5476433941051</v>
       </c>
       <c r="M44" t="n">
-        <v>378.924869782014</v>
+        <v>378.9248697820139</v>
       </c>
       <c r="N44" t="n">
-        <v>385.0562703288416</v>
+        <v>385.0562703288415</v>
       </c>
       <c r="O44" t="n">
-        <v>363.5977171612157</v>
+        <v>363.5977171612156</v>
       </c>
       <c r="P44" t="n">
-        <v>310.3222394666069</v>
+        <v>310.3222394666068</v>
       </c>
       <c r="Q44" t="n">
         <v>233.0390781526554</v>
@@ -34395,10 +34395,10 @@
         <v>135.5570926879582</v>
       </c>
       <c r="S44" t="n">
-        <v>49.17528903153002</v>
+        <v>49.17528903153001</v>
       </c>
       <c r="T44" t="n">
-        <v>9.446618880330117</v>
+        <v>9.446618880330115</v>
       </c>
       <c r="U44" t="n">
         <v>0.1726395226559472</v>
@@ -34441,10 +34441,10 @@
         <v>1.154628599933025</v>
       </c>
       <c r="H45" t="n">
-        <v>11.15128147830054</v>
+        <v>11.15128147830053</v>
       </c>
       <c r="I45" t="n">
-        <v>39.75366012927303</v>
+        <v>39.75366012927302</v>
       </c>
       <c r="J45" t="n">
         <v>109.0870818910408</v>
@@ -34453,10 +34453,10 @@
         <v>186.4471980865535</v>
       </c>
       <c r="L45" t="n">
-        <v>250.7012668407212</v>
+        <v>250.7012668407211</v>
       </c>
       <c r="M45" t="n">
-        <v>292.5565535882933</v>
+        <v>292.5565535882932</v>
       </c>
       <c r="N45" t="n">
         <v>300.299655032581</v>
@@ -34465,22 +34465,22 @@
         <v>274.7155160551176</v>
       </c>
       <c r="P45" t="n">
-        <v>220.4834209819477</v>
+        <v>220.4834209819476</v>
       </c>
       <c r="Q45" t="n">
         <v>147.3873279493455</v>
       </c>
       <c r="R45" t="n">
-        <v>71.68825640636804</v>
+        <v>71.68825640636803</v>
       </c>
       <c r="S45" t="n">
         <v>21.44671982770333</v>
       </c>
       <c r="T45" t="n">
-        <v>4.653963523414254</v>
+        <v>4.653963523414253</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07596240789033065</v>
+        <v>0.07596240789033064</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9680018316953605</v>
+        <v>0.9680018316953604</v>
       </c>
       <c r="H46" t="n">
-        <v>8.606416285436939</v>
+        <v>8.606416285436937</v>
       </c>
       <c r="I46" t="n">
         <v>29.11045508407503</v>
       </c>
       <c r="J46" t="n">
-        <v>68.43772950086199</v>
+        <v>68.43772950086198</v>
       </c>
       <c r="K46" t="n">
         <v>112.4642128096973</v>
@@ -34547,19 +34547,19 @@
         <v>117.0754215352279</v>
       </c>
       <c r="Q46" t="n">
-        <v>81.05695337950878</v>
+        <v>81.05695337950877</v>
       </c>
       <c r="R46" t="n">
-        <v>43.52488235968411</v>
+        <v>43.5248823596841</v>
       </c>
       <c r="S46" t="n">
         <v>16.86963192145459</v>
       </c>
       <c r="T46" t="n">
-        <v>4.136007826334721</v>
+        <v>4.13600782633472</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05280009991065609</v>
+        <v>0.05280009991065608</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35415,16 +35415,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L11" t="n">
-        <v>234.6383920255357</v>
+        <v>234.6383920255356</v>
       </c>
       <c r="M11" t="n">
-        <v>266.2786873535735</v>
+        <v>266.2786873535734</v>
       </c>
       <c r="N11" t="n">
         <v>271.3446719326302</v>
       </c>
       <c r="O11" t="n">
-        <v>254.034210637874</v>
+        <v>254.0342106378739</v>
       </c>
       <c r="P11" t="n">
         <v>211.1492784199623</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>15.69034674432573</v>
+        <v>39.38459507201445</v>
       </c>
       <c r="J12" t="n">
-        <v>66.82266174326165</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K12" t="n">
-        <v>127.0390157285253</v>
+        <v>197.4144057639433</v>
       </c>
       <c r="L12" t="n">
-        <v>453.4520759799035</v>
+        <v>178.4230816471201</v>
       </c>
       <c r="M12" t="n">
         <v>211.3885843242576</v>
@@ -35503,16 +35503,16 @@
         <v>219.3484664972891</v>
       </c>
       <c r="O12" t="n">
-        <v>417.6281791232356</v>
+        <v>197.0138050378653</v>
       </c>
       <c r="P12" t="n">
         <v>154.9475907538915</v>
       </c>
       <c r="Q12" t="n">
-        <v>95.38455350960189</v>
+        <v>95.38455350960186</v>
       </c>
       <c r="R12" t="n">
-        <v>33.78553351613294</v>
+        <v>140.3062408746237</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>34.21638531055221</v>
+        <v>112.9251900057248</v>
       </c>
       <c r="K13" t="n">
-        <v>69.17590691325471</v>
+        <v>318.9563201597416</v>
       </c>
       <c r="L13" t="n">
         <v>453.4520759799035</v>
       </c>
       <c r="M13" t="n">
+        <v>99.04378543193859</v>
+      </c>
+      <c r="N13" t="n">
+        <v>97.97849100196758</v>
+      </c>
+      <c r="O13" t="n">
         <v>453.4520759799035</v>
       </c>
-      <c r="N13" t="n">
-        <v>453.4520759799035</v>
-      </c>
-      <c r="O13" t="n">
-        <v>219.9348809797784</v>
-      </c>
       <c r="P13" t="n">
-        <v>71.4556647890261</v>
+        <v>219.3311273731423</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.34794198810391</v>
+        <v>40.3479419881039</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,16 +35652,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L14" t="n">
-        <v>234.6383920255357</v>
+        <v>234.6383920255356</v>
       </c>
       <c r="M14" t="n">
-        <v>266.2786873535735</v>
+        <v>266.2786873535734</v>
       </c>
       <c r="N14" t="n">
         <v>271.3446719326302</v>
       </c>
       <c r="O14" t="n">
-        <v>254.034210637874</v>
+        <v>254.0342106378739</v>
       </c>
       <c r="P14" t="n">
         <v>211.1492784199623</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>39.38459507201446</v>
+        <v>39.38459507201445</v>
       </c>
       <c r="J15" t="n">
         <v>361.8756844398183</v>
@@ -35731,7 +35731,7 @@
         <v>127.0390157285253</v>
       </c>
       <c r="L15" t="n">
-        <v>355.3191790410285</v>
+        <v>178.4230816471201</v>
       </c>
       <c r="M15" t="n">
         <v>211.3885843242576</v>
@@ -35740,16 +35740,16 @@
         <v>219.3484664972891</v>
       </c>
       <c r="O15" t="n">
-        <v>197.0138050378654</v>
+        <v>197.0138050378653</v>
       </c>
       <c r="P15" t="n">
         <v>154.9475907538915</v>
       </c>
       <c r="Q15" t="n">
-        <v>95.38455350960189</v>
+        <v>165.7599435450208</v>
       </c>
       <c r="R15" t="n">
-        <v>33.78553351613294</v>
+        <v>140.3062408746237</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35810,22 +35810,22 @@
         <v>318.9563201597416</v>
       </c>
       <c r="L16" t="n">
-        <v>93.43012434365872</v>
+        <v>245.8539535860839</v>
       </c>
       <c r="M16" t="n">
-        <v>99.0437854319386</v>
+        <v>99.04378543193859</v>
       </c>
       <c r="N16" t="n">
-        <v>452.9733826183905</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="O16" t="n">
         <v>453.4520759799035</v>
       </c>
       <c r="P16" t="n">
-        <v>71.4556647890261</v>
+        <v>71.45566478902609</v>
       </c>
       <c r="Q16" t="n">
-        <v>193.2504645920423</v>
+        <v>40.3479419881039</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,16 +35889,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L17" t="n">
-        <v>234.6383920255357</v>
+        <v>234.6383920255356</v>
       </c>
       <c r="M17" t="n">
-        <v>266.2786873535735</v>
+        <v>266.2786873535734</v>
       </c>
       <c r="N17" t="n">
         <v>271.3446719326302</v>
       </c>
       <c r="O17" t="n">
-        <v>254.034210637874</v>
+        <v>254.0342106378739</v>
       </c>
       <c r="P17" t="n">
         <v>211.1492784199623</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>39.38459507201446</v>
+        <v>39.38459507201445</v>
       </c>
       <c r="J18" t="n">
-        <v>105.8380142238586</v>
+        <v>66.82266174326163</v>
       </c>
       <c r="K18" t="n">
-        <v>453.4520759799034</v>
+        <v>127.0390157285253</v>
       </c>
       <c r="L18" t="n">
         <v>178.4230816471201</v>
@@ -35974,16 +35974,16 @@
         <v>211.3885843242576</v>
       </c>
       <c r="N18" t="n">
-        <v>219.3484664972891</v>
+        <v>226.7093567589622</v>
       </c>
       <c r="O18" t="n">
-        <v>197.0138050378654</v>
+        <v>197.0138050378653</v>
       </c>
       <c r="P18" t="n">
         <v>154.9475907538915</v>
       </c>
       <c r="Q18" t="n">
-        <v>95.38455350960189</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="R18" t="n">
         <v>140.3062408746237</v>
@@ -36044,25 +36044,25 @@
         <v>112.9251900057248</v>
       </c>
       <c r="K19" t="n">
-        <v>318.4776267982283</v>
+        <v>318.9563201597416</v>
       </c>
       <c r="L19" t="n">
         <v>93.43012434365872</v>
       </c>
       <c r="M19" t="n">
-        <v>99.0437854319386</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="N19" t="n">
         <v>453.4520759799034</v>
       </c>
       <c r="O19" t="n">
-        <v>453.4520759799034</v>
+        <v>87.16477557810536</v>
       </c>
       <c r="P19" t="n">
-        <v>71.4556647890261</v>
+        <v>235.7585038852844</v>
       </c>
       <c r="Q19" t="n">
-        <v>193.2504645920423</v>
+        <v>40.3479419881039</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>32.13410955589335</v>
+        <v>32.13410955589333</v>
       </c>
       <c r="J20" t="n">
-        <v>117.3812187638195</v>
+        <v>117.3812187638194</v>
       </c>
       <c r="K20" t="n">
-        <v>184.2523111213353</v>
+        <v>184.2523111213352</v>
       </c>
       <c r="L20" t="n">
-        <v>234.6383920255357</v>
+        <v>234.6383920255356</v>
       </c>
       <c r="M20" t="n">
-        <v>266.2786873535735</v>
+        <v>266.2786873535734</v>
       </c>
       <c r="N20" t="n">
-        <v>271.3446719326302</v>
+        <v>271.3446719326301</v>
       </c>
       <c r="O20" t="n">
-        <v>254.034210637874</v>
+        <v>254.0342106378739</v>
       </c>
       <c r="P20" t="n">
-        <v>211.1492784199623</v>
+        <v>211.1492784199622</v>
       </c>
       <c r="Q20" t="n">
         <v>150.6571718164749</v>
       </c>
       <c r="R20" t="n">
-        <v>73.61695629332706</v>
+        <v>73.61695629332704</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>39.38459507201446</v>
+        <v>39.38459507201445</v>
       </c>
       <c r="J21" t="n">
         <v>361.8756844398183</v>
       </c>
       <c r="K21" t="n">
-        <v>127.0390157285253</v>
+        <v>127.0390157285252</v>
       </c>
       <c r="L21" t="n">
         <v>178.4230816471201</v>
@@ -36211,16 +36211,16 @@
         <v>211.3885843242576</v>
       </c>
       <c r="N21" t="n">
-        <v>289.723856532707</v>
+        <v>219.348466497289</v>
       </c>
       <c r="O21" t="n">
-        <v>197.0138050378654</v>
+        <v>197.0138050378653</v>
       </c>
       <c r="P21" t="n">
         <v>154.9475907538915</v>
       </c>
       <c r="Q21" t="n">
-        <v>95.38455350960189</v>
+        <v>165.7599435450201</v>
       </c>
       <c r="R21" t="n">
         <v>140.3062408746237</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>34.21638531055221</v>
+        <v>34.2163853105522</v>
       </c>
       <c r="K22" t="n">
-        <v>69.17590691325471</v>
+        <v>318.9563201597416</v>
       </c>
       <c r="L22" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="M22" t="n">
-        <v>453.4520759799035</v>
+        <v>99.04378543193857</v>
       </c>
       <c r="N22" t="n">
-        <v>97.9784910019676</v>
+        <v>97.97849100196757</v>
       </c>
       <c r="O22" t="n">
-        <v>259.493107802858</v>
+        <v>364.1209851043358</v>
       </c>
       <c r="P22" t="n">
         <v>387.3710229438823</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.34794198810391</v>
+        <v>40.3479419881039</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>47.27552170696175</v>
       </c>
       <c r="J24" t="n">
-        <v>176.8553962438416</v>
+        <v>88.47596755770748</v>
       </c>
       <c r="K24" t="n">
         <v>164.0479642532202</v>
@@ -36460,7 +36460,7 @@
         <v>124.640289660367</v>
       </c>
       <c r="R24" t="n">
-        <v>48.0153370122239</v>
+        <v>136.3947656983578</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36521,22 +36521,22 @@
         <v>341.2799716034722</v>
       </c>
       <c r="L25" t="n">
-        <v>502.1875140346809</v>
+        <v>137.9500963475378</v>
       </c>
       <c r="M25" t="n">
         <v>546.8758537631907</v>
       </c>
       <c r="N25" t="n">
-        <v>127.3817793237452</v>
+        <v>529.4352367397858</v>
       </c>
       <c r="O25" t="n">
-        <v>380.7544878245137</v>
+        <v>495.8409706995538</v>
       </c>
       <c r="P25" t="n">
         <v>94.69462087724143</v>
       </c>
       <c r="Q25" t="n">
-        <v>209.3399132186623</v>
+        <v>56.43739061472384</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,13 +36591,13 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>48.64816242095415</v>
+        <v>48.64816242095414</v>
       </c>
       <c r="J26" t="n">
         <v>153.7370865896661</v>
       </c>
       <c r="K26" t="n">
-        <v>238.7403327057715</v>
+        <v>238.7403327057714</v>
       </c>
       <c r="L26" t="n">
         <v>302.2356009614822</v>
@@ -36606,13 +36606,13 @@
         <v>341.4936068825821</v>
       </c>
       <c r="N26" t="n">
-        <v>347.7766474943956</v>
+        <v>347.7766474943955</v>
       </c>
       <c r="O26" t="n">
-        <v>326.2067578051916</v>
+        <v>326.2067578051915</v>
       </c>
       <c r="P26" t="n">
-        <v>272.7468776563756</v>
+        <v>272.7468776563755</v>
       </c>
       <c r="Q26" t="n">
         <v>196.9144035480574</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>47.27552170696175</v>
+        <v>23.58127337927302</v>
       </c>
       <c r="J27" t="n">
-        <v>88.47596755770748</v>
+        <v>88.47596755770745</v>
       </c>
       <c r="K27" t="n">
-        <v>164.0479642532202</v>
+        <v>164.0479642532201</v>
       </c>
       <c r="L27" t="n">
-        <v>228.1861801264916</v>
+        <v>228.1861801264915</v>
       </c>
       <c r="M27" t="n">
-        <v>269.4597730759653</v>
+        <v>269.4597730759652</v>
       </c>
       <c r="N27" t="n">
         <v>278.9566268190393</v>
       </c>
       <c r="O27" t="n">
-        <v>251.5436263328954</v>
+        <v>251.5436263328953</v>
       </c>
       <c r="P27" t="n">
-        <v>198.712579777119</v>
+        <v>198.7125797771189</v>
       </c>
       <c r="Q27" t="n">
-        <v>124.640289660367</v>
+        <v>236.7139666741898</v>
       </c>
       <c r="R27" t="n">
-        <v>136.3947656983578</v>
+        <v>48.01533701222388</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>47.80097351696013</v>
+        <v>47.80097351696011</v>
       </c>
       <c r="K28" t="n">
-        <v>91.49955835698532</v>
+        <v>91.49955835698529</v>
       </c>
       <c r="L28" t="n">
-        <v>466.4393142891964</v>
+        <v>502.1875140346809</v>
       </c>
       <c r="M28" t="n">
         <v>546.8758537631907</v>
@@ -36767,13 +36767,13 @@
         <v>529.4352367397858</v>
       </c>
       <c r="O28" t="n">
-        <v>495.8409706995538</v>
+        <v>460.0927709540704</v>
       </c>
       <c r="P28" t="n">
-        <v>94.69462087724143</v>
+        <v>94.69462087724141</v>
       </c>
       <c r="Q28" t="n">
-        <v>56.43739061472384</v>
+        <v>56.43739061472382</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,13 +36828,13 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>48.64816242095415</v>
+        <v>48.64816242095414</v>
       </c>
       <c r="J29" t="n">
         <v>153.7370865896661</v>
       </c>
       <c r="K29" t="n">
-        <v>238.7403327057715</v>
+        <v>238.7403327057714</v>
       </c>
       <c r="L29" t="n">
         <v>302.2356009614822</v>
@@ -36843,13 +36843,13 @@
         <v>341.4936068825821</v>
       </c>
       <c r="N29" t="n">
-        <v>347.7766474943956</v>
+        <v>347.7766474943955</v>
       </c>
       <c r="O29" t="n">
-        <v>326.2067578051916</v>
+        <v>326.2067578051915</v>
       </c>
       <c r="P29" t="n">
-        <v>272.7468776563756</v>
+        <v>272.7468776563755</v>
       </c>
       <c r="Q29" t="n">
         <v>196.9144035480574</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>47.27552170696175</v>
+        <v>23.58127337927302</v>
       </c>
       <c r="J30" t="n">
-        <v>88.47596755770748</v>
+        <v>88.47596755770745</v>
       </c>
       <c r="K30" t="n">
-        <v>164.0479642532202</v>
+        <v>164.0479642532201</v>
       </c>
       <c r="L30" t="n">
-        <v>228.1861801264916</v>
+        <v>228.1861801264915</v>
       </c>
       <c r="M30" t="n">
-        <v>269.4597730759653</v>
+        <v>269.4597730759652</v>
       </c>
       <c r="N30" t="n">
-        <v>367.3360555051733</v>
+        <v>278.9566268190393</v>
       </c>
       <c r="O30" t="n">
-        <v>251.5436263328954</v>
+        <v>251.5436263328953</v>
       </c>
       <c r="P30" t="n">
-        <v>198.712579777119</v>
+        <v>198.7125797771189</v>
       </c>
       <c r="Q30" t="n">
-        <v>124.640289660367</v>
+        <v>236.7139666741898</v>
       </c>
       <c r="R30" t="n">
-        <v>48.0153370122239</v>
+        <v>48.01533701222388</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>126.5097782121327</v>
+        <v>47.80097351696011</v>
       </c>
       <c r="K31" t="n">
-        <v>341.2799716034722</v>
+        <v>91.49955835698529</v>
       </c>
       <c r="L31" t="n">
-        <v>452.7031723009492</v>
+        <v>121.9967124274436</v>
       </c>
       <c r="M31" t="n">
         <v>546.8758537631907</v>
       </c>
       <c r="N31" t="n">
-        <v>127.3817793237452</v>
+        <v>529.4352367397858</v>
       </c>
       <c r="O31" t="n">
-        <v>114.3234714033889</v>
+        <v>495.8409706995538</v>
       </c>
       <c r="P31" t="n">
-        <v>410.6099790320976</v>
+        <v>286.2347001350565</v>
       </c>
       <c r="Q31" t="n">
-        <v>209.3399132186623</v>
+        <v>209.3399132186622</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,13 +37065,13 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>48.64816242095415</v>
+        <v>48.64816242095414</v>
       </c>
       <c r="J32" t="n">
         <v>153.7370865896661</v>
       </c>
       <c r="K32" t="n">
-        <v>238.7403327057715</v>
+        <v>238.7403327057714</v>
       </c>
       <c r="L32" t="n">
         <v>302.2356009614822</v>
@@ -37080,13 +37080,13 @@
         <v>341.4936068825821</v>
       </c>
       <c r="N32" t="n">
-        <v>347.7766474943956</v>
+        <v>347.7766474943955</v>
       </c>
       <c r="O32" t="n">
-        <v>326.2067578051916</v>
+        <v>326.2067578051915</v>
       </c>
       <c r="P32" t="n">
-        <v>272.7468776563756</v>
+        <v>272.7468776563755</v>
       </c>
       <c r="Q32" t="n">
         <v>196.9144035480574</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>29.13424303460491</v>
+        <v>47.27552170696175</v>
       </c>
       <c r="J33" t="n">
-        <v>88.47596755770748</v>
+        <v>88.47596755770745</v>
       </c>
       <c r="K33" t="n">
-        <v>164.0479642532202</v>
+        <v>164.0479642532201</v>
       </c>
       <c r="L33" t="n">
-        <v>228.1861801264916</v>
+        <v>228.1861801264915</v>
       </c>
       <c r="M33" t="n">
-        <v>269.4597730759653</v>
+        <v>269.4597730759652</v>
       </c>
       <c r="N33" t="n">
         <v>278.9566268190393</v>
       </c>
       <c r="O33" t="n">
-        <v>251.5436263328954</v>
+        <v>251.5436263328953</v>
       </c>
       <c r="P33" t="n">
-        <v>198.712579777119</v>
+        <v>198.7125797771189</v>
       </c>
       <c r="Q33" t="n">
         <v>124.640289660367</v>
       </c>
       <c r="R33" t="n">
-        <v>154.5360443707146</v>
+        <v>136.3947656983583</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,16 +37226,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>47.80097351696013</v>
+        <v>47.80097351696011</v>
       </c>
       <c r="K34" t="n">
-        <v>91.49955835698532</v>
+        <v>91.49955835698529</v>
       </c>
       <c r="L34" t="n">
-        <v>502.1875140346809</v>
+        <v>466.4393142891973</v>
       </c>
       <c r="M34" t="n">
-        <v>195.2122958628511</v>
+        <v>546.8758537631907</v>
       </c>
       <c r="N34" t="n">
         <v>529.4352367397858</v>
@@ -37244,10 +37244,10 @@
         <v>495.8409706995538</v>
       </c>
       <c r="P34" t="n">
-        <v>410.6099790320976</v>
+        <v>94.69462087724141</v>
       </c>
       <c r="Q34" t="n">
-        <v>56.43739061472384</v>
+        <v>56.43739061472382</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,13 +37302,13 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>48.64816242095415</v>
+        <v>48.64816242095414</v>
       </c>
       <c r="J35" t="n">
         <v>153.7370865896661</v>
       </c>
       <c r="K35" t="n">
-        <v>238.7403327057715</v>
+        <v>238.7403327057714</v>
       </c>
       <c r="L35" t="n">
         <v>302.2356009614822</v>
@@ -37317,13 +37317,13 @@
         <v>341.4936068825821</v>
       </c>
       <c r="N35" t="n">
-        <v>347.7766474943956</v>
+        <v>347.7766474943955</v>
       </c>
       <c r="O35" t="n">
-        <v>326.2067578051916</v>
+        <v>326.2067578051915</v>
       </c>
       <c r="P35" t="n">
-        <v>272.7468776563756</v>
+        <v>272.7468776563755</v>
       </c>
       <c r="Q35" t="n">
         <v>196.9144035480574</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>23.58127337927303</v>
+        <v>47.27552170696175</v>
       </c>
       <c r="J36" t="n">
-        <v>200.5496445715303</v>
+        <v>88.47596755770745</v>
       </c>
       <c r="K36" t="n">
-        <v>164.0479642532202</v>
+        <v>164.0479642532201</v>
       </c>
       <c r="L36" t="n">
-        <v>228.1861801264916</v>
+        <v>228.1861801264915</v>
       </c>
       <c r="M36" t="n">
-        <v>269.4597730759653</v>
+        <v>269.4597730759652</v>
       </c>
       <c r="N36" t="n">
         <v>278.9566268190393</v>
       </c>
       <c r="O36" t="n">
-        <v>251.5436263328954</v>
+        <v>251.5436263328953</v>
       </c>
       <c r="P36" t="n">
-        <v>198.712579777119</v>
+        <v>198.7125797771189</v>
       </c>
       <c r="Q36" t="n">
         <v>124.640289660367</v>
       </c>
       <c r="R36" t="n">
-        <v>48.0153370122239</v>
+        <v>136.3947656983583</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>126.5097782121327</v>
+        <v>47.80097351696011</v>
       </c>
       <c r="K37" t="n">
-        <v>341.2799716034722</v>
+        <v>304.9022934236029</v>
       </c>
       <c r="L37" t="n">
         <v>502.1875140346809</v>
       </c>
       <c r="M37" t="n">
-        <v>129.1632472350878</v>
+        <v>546.8758537631907</v>
       </c>
       <c r="N37" t="n">
-        <v>266.9950674258901</v>
+        <v>127.3817793237452</v>
       </c>
       <c r="O37" t="n">
         <v>495.8409706995538</v>
       </c>
       <c r="P37" t="n">
-        <v>410.6099790320976</v>
+        <v>94.69462087724141</v>
       </c>
       <c r="Q37" t="n">
-        <v>56.43739061472384</v>
+        <v>209.3399132186622</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,13 +37539,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>48.64816242095415</v>
+        <v>48.64816242095414</v>
       </c>
       <c r="J38" t="n">
         <v>153.7370865896661</v>
       </c>
       <c r="K38" t="n">
-        <v>238.7403327057715</v>
+        <v>238.7403327057714</v>
       </c>
       <c r="L38" t="n">
         <v>302.2356009614822</v>
@@ -37554,13 +37554,13 @@
         <v>341.4936068825821</v>
       </c>
       <c r="N38" t="n">
-        <v>347.7766474943956</v>
+        <v>347.7766474943955</v>
       </c>
       <c r="O38" t="n">
-        <v>326.2067578051916</v>
+        <v>326.2067578051915</v>
       </c>
       <c r="P38" t="n">
-        <v>272.7468776563756</v>
+        <v>272.7468776563755</v>
       </c>
       <c r="Q38" t="n">
         <v>196.9144035480574</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.58127337927303</v>
+        <v>29.13424303460532</v>
       </c>
       <c r="J39" t="n">
-        <v>200.5496445715303</v>
+        <v>88.47596755770745</v>
       </c>
       <c r="K39" t="n">
-        <v>164.0479642532202</v>
+        <v>164.0479642532201</v>
       </c>
       <c r="L39" t="n">
-        <v>228.1861801264916</v>
+        <v>228.1861801264915</v>
       </c>
       <c r="M39" t="n">
-        <v>269.4597730759653</v>
+        <v>269.4597730759652</v>
       </c>
       <c r="N39" t="n">
         <v>278.9566268190393</v>
       </c>
       <c r="O39" t="n">
-        <v>251.5436263328954</v>
+        <v>251.5436263328953</v>
       </c>
       <c r="P39" t="n">
-        <v>198.712579777119</v>
+        <v>198.7125797771189</v>
       </c>
       <c r="Q39" t="n">
         <v>124.640289660367</v>
       </c>
       <c r="R39" t="n">
-        <v>48.0153370122239</v>
+        <v>154.5360443707146</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>47.80097351696013</v>
+        <v>126.5097782121327</v>
       </c>
       <c r="K40" t="n">
-        <v>341.2799716034722</v>
+        <v>327.9907371016776</v>
       </c>
       <c r="L40" t="n">
         <v>502.1875140346809</v>
       </c>
       <c r="M40" t="n">
-        <v>546.8758537631907</v>
+        <v>129.1632472350878</v>
       </c>
       <c r="N40" t="n">
         <v>127.3817793237452</v>
       </c>
       <c r="O40" t="n">
-        <v>296.4504569687685</v>
+        <v>495.8409706995538</v>
       </c>
       <c r="P40" t="n">
         <v>410.6099790320976</v>
       </c>
       <c r="Q40" t="n">
-        <v>56.43739061472384</v>
+        <v>209.3399132186622</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,13 +37776,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>48.64816242095415</v>
+        <v>48.64816242095414</v>
       </c>
       <c r="J41" t="n">
         <v>153.7370865896661</v>
       </c>
       <c r="K41" t="n">
-        <v>238.7403327057715</v>
+        <v>238.7403327057714</v>
       </c>
       <c r="L41" t="n">
         <v>302.2356009614822</v>
@@ -37791,13 +37791,13 @@
         <v>341.4936068825821</v>
       </c>
       <c r="N41" t="n">
-        <v>347.7766474943956</v>
+        <v>347.7766474943955</v>
       </c>
       <c r="O41" t="n">
-        <v>326.2067578051916</v>
+        <v>326.2067578051915</v>
       </c>
       <c r="P41" t="n">
-        <v>272.7468776563756</v>
+        <v>272.7468776563755</v>
       </c>
       <c r="Q41" t="n">
         <v>196.9144035480574</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>47.27552170696175</v>
+        <v>29.13424303460532</v>
       </c>
       <c r="J42" t="n">
-        <v>88.47596755770748</v>
+        <v>88.47596755770745</v>
       </c>
       <c r="K42" t="n">
-        <v>164.0479642532202</v>
+        <v>164.0479642532201</v>
       </c>
       <c r="L42" t="n">
-        <v>228.1861801264916</v>
+        <v>228.1861801264915</v>
       </c>
       <c r="M42" t="n">
-        <v>269.4597730759653</v>
+        <v>269.4597730759652</v>
       </c>
       <c r="N42" t="n">
         <v>278.9566268190393</v>
       </c>
       <c r="O42" t="n">
-        <v>251.5436263328954</v>
+        <v>251.5436263328953</v>
       </c>
       <c r="P42" t="n">
-        <v>198.712579777119</v>
+        <v>198.7125797771189</v>
       </c>
       <c r="Q42" t="n">
-        <v>213.0197183465009</v>
+        <v>124.640289660367</v>
       </c>
       <c r="R42" t="n">
-        <v>48.0153370122239</v>
+        <v>154.5360443707146</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>126.5097782121327</v>
+        <v>47.80097351696011</v>
       </c>
       <c r="K43" t="n">
-        <v>91.49955835698532</v>
+        <v>91.49955835698529</v>
       </c>
       <c r="L43" t="n">
-        <v>502.1875140346809</v>
+        <v>466.4393142891973</v>
       </c>
       <c r="M43" t="n">
         <v>546.8758537631907</v>
       </c>
       <c r="N43" t="n">
-        <v>127.3817793237452</v>
+        <v>529.4352367397858</v>
       </c>
       <c r="O43" t="n">
-        <v>314.6195429161436</v>
+        <v>495.8409706995538</v>
       </c>
       <c r="P43" t="n">
-        <v>410.6099790320976</v>
+        <v>94.69462087724141</v>
       </c>
       <c r="Q43" t="n">
-        <v>209.3399132186623</v>
+        <v>56.43739061472382</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,13 +38013,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>48.6481624209548</v>
+        <v>48.64816242095414</v>
       </c>
       <c r="J44" t="n">
         <v>153.7370865896661</v>
       </c>
       <c r="K44" t="n">
-        <v>238.7403327057715</v>
+        <v>238.7403327057714</v>
       </c>
       <c r="L44" t="n">
         <v>302.2356009614822</v>
@@ -38028,13 +38028,13 @@
         <v>341.4936068825821</v>
       </c>
       <c r="N44" t="n">
-        <v>347.7766474943956</v>
+        <v>347.7766474943955</v>
       </c>
       <c r="O44" t="n">
-        <v>326.2067578051916</v>
+        <v>326.2067578051915</v>
       </c>
       <c r="P44" t="n">
-        <v>272.7468776563756</v>
+        <v>272.7468776563755</v>
       </c>
       <c r="Q44" t="n">
         <v>196.9144035480574</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.58127337927303</v>
+        <v>23.58127337927302</v>
       </c>
       <c r="J45" t="n">
-        <v>88.47596755770748</v>
+        <v>88.47596755770745</v>
       </c>
       <c r="K45" t="n">
-        <v>276.121641267043</v>
+        <v>164.0479642532201</v>
       </c>
       <c r="L45" t="n">
-        <v>228.1861801264916</v>
+        <v>228.1861801264915</v>
       </c>
       <c r="M45" t="n">
-        <v>269.4597730759653</v>
+        <v>269.4597730759652</v>
       </c>
       <c r="N45" t="n">
         <v>278.9566268190393</v>
       </c>
       <c r="O45" t="n">
-        <v>251.5436263328954</v>
+        <v>251.5436263328953</v>
       </c>
       <c r="P45" t="n">
-        <v>198.712579777119</v>
+        <v>198.7125797771189</v>
       </c>
       <c r="Q45" t="n">
-        <v>124.640289660367</v>
+        <v>236.7139666741898</v>
       </c>
       <c r="R45" t="n">
-        <v>48.0153370122239</v>
+        <v>48.01533701222388</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>47.80097351696013</v>
+        <v>47.80097351696011</v>
       </c>
       <c r="K46" t="n">
-        <v>341.2799716034722</v>
+        <v>91.49955835698529</v>
       </c>
       <c r="L46" t="n">
         <v>502.1875140346809</v>
       </c>
       <c r="M46" t="n">
-        <v>129.1632472350878</v>
+        <v>546.8758537631907</v>
       </c>
       <c r="N46" t="n">
         <v>529.4352367397858</v>
       </c>
       <c r="O46" t="n">
-        <v>495.8409706995538</v>
+        <v>460.0927709540704</v>
       </c>
       <c r="P46" t="n">
-        <v>94.69462087724143</v>
+        <v>94.69462087724141</v>
       </c>
       <c r="Q46" t="n">
-        <v>188.6213841508568</v>
+        <v>56.43739061472382</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
